--- a/etf_dfs/ENZL.xlsx
+++ b/etf_dfs/ENZL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>ENZL</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>40422</v>
       </c>
@@ -456,13 +462,13 @@
         <v>27.28000068664551</v>
       </c>
       <c r="F2">
-        <v>17.0625</v>
+        <v>17.0624942779541</v>
       </c>
       <c r="G2">
         <v>26000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>40452</v>
       </c>
@@ -479,7 +485,7 @@
         <v>29.40999984741211</v>
       </c>
       <c r="F3">
-        <v>18.39472770690918</v>
+        <v>18.39472579956055</v>
       </c>
       <c r="G3">
         <v>16600</v>
@@ -488,7 +494,7 @@
         <v>0.07807914615666811</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>40483</v>
       </c>
@@ -505,7 +511,7 @@
         <v>28.43000030517578</v>
       </c>
       <c r="F4">
-        <v>17.78177261352539</v>
+        <v>17.78177642822266</v>
       </c>
       <c r="G4">
         <v>7300</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.03332198392794494</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.07877249451467459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>40513</v>
       </c>
@@ -531,7 +540,7 @@
         <v>29.3799991607666</v>
       </c>
       <c r="F5">
-        <v>18.79426193237305</v>
+        <v>18.79426574707031</v>
       </c>
       <c r="G5">
         <v>11000</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.03341536564872527</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.05606386076298656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>40544</v>
       </c>
@@ -557,7 +569,7 @@
         <v>29.43000030517578</v>
       </c>
       <c r="F6">
-        <v>18.82625198364258</v>
+        <v>18.82624816894531</v>
       </c>
       <c r="G6">
         <v>14800</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.001701876985617856</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.04736809962447825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>40575</v>
       </c>
@@ -583,7 +598,7 @@
         <v>28.73999977111816</v>
       </c>
       <c r="F7">
-        <v>18.38485908508301</v>
+        <v>18.38486480712891</v>
       </c>
       <c r="G7">
         <v>32800</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.02344548171602523</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.04538456968935115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>40603</v>
       </c>
@@ -609,7 +627,7 @@
         <v>29.80999946594238</v>
       </c>
       <c r="F8">
-        <v>19.06933212280273</v>
+        <v>19.06933403015137</v>
       </c>
       <c r="G8">
         <v>50800</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.03723033066616432</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.04195228135495872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>40634</v>
       </c>
@@ -635,7 +656,7 @@
         <v>32.36000061035156</v>
       </c>
       <c r="F9">
-        <v>20.70056343078613</v>
+        <v>20.70055770874023</v>
       </c>
       <c r="G9">
         <v>17000</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.08554180443117843</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.04653279306331306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>40664</v>
       </c>
@@ -661,7 +685,7 @@
         <v>33.52999877929688</v>
       </c>
       <c r="F10">
-        <v>21.44900512695312</v>
+        <v>21.44900321960449</v>
       </c>
       <c r="G10">
         <v>61700</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.0361556905710021</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.04324233535228366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>40695</v>
       </c>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.02833274628177929</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.04444507240595989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>40725</v>
       </c>
@@ -713,7 +743,7 @@
         <v>34</v>
       </c>
       <c r="F12">
-        <v>22.02020263671875</v>
+        <v>22.02020454406738</v>
       </c>
       <c r="G12">
         <v>34900</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.04358496283421931</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.04251922066143633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>40756</v>
       </c>
@@ -739,7 +772,7 @@
         <v>32.56999969482422</v>
       </c>
       <c r="F13">
-        <v>21.09406089782715</v>
+        <v>21.09405899047852</v>
       </c>
       <c r="G13">
         <v>43900</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.04205883250517006</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.0448620430314282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>40787</v>
       </c>
@@ -765,7 +801,7 @@
         <v>28.97999954223633</v>
       </c>
       <c r="F14">
-        <v>18.76898574829102</v>
+        <v>18.76898765563965</v>
       </c>
       <c r="G14">
         <v>84700</v>
@@ -774,13 +810,16 @@
         <v>-0.1102241383551007</v>
       </c>
       <c r="I14">
-        <v>0.06231667202351021</v>
+        <v>0.05640443720850848</v>
       </c>
       <c r="J14">
         <v>0.06231667202351021</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.06231667202351021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>40817</v>
       </c>
@@ -806,13 +845,16 @@
         <v>0.03968252714615228</v>
       </c>
       <c r="I15">
-        <v>0.02448144566780219</v>
+        <v>0.05478045881880024</v>
       </c>
       <c r="J15">
         <v>0.02448144566780219</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.02448144566780219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>40848</v>
       </c>
@@ -829,7 +871,7 @@
         <v>29.30999946594238</v>
       </c>
       <c r="F16">
-        <v>18.98270988464355</v>
+        <v>18.98271179199219</v>
       </c>
       <c r="G16">
         <v>32200</v>
@@ -838,13 +880,16 @@
         <v>-0.02721539056303635</v>
       </c>
       <c r="I16">
-        <v>0.03095318857968477</v>
+        <v>0.0535177033058903</v>
       </c>
       <c r="J16">
         <v>0.03095318857968477</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.03095318857968477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>40878</v>
       </c>
@@ -870,13 +915,16 @@
         <v>-0.05970658587126432</v>
       </c>
       <c r="I17">
-        <v>-0.06194689403717224</v>
+        <v>0.05432911916135939</v>
       </c>
       <c r="J17">
         <v>-0.06194689403717224</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.06194689403717224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>40909</v>
       </c>
@@ -893,7 +941,7 @@
         <v>29.54000091552734</v>
       </c>
       <c r="F18">
-        <v>20.16789627075195</v>
+        <v>20.16789245605469</v>
       </c>
       <c r="G18">
         <v>13300</v>
@@ -902,13 +950,16 @@
         <v>0.07184330507813597</v>
       </c>
       <c r="I18">
-        <v>0.003737703337101772</v>
+        <v>0.05530935447374872</v>
       </c>
       <c r="J18">
         <v>0.003737703337101772</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.003737703337101772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>40940</v>
       </c>
@@ -934,13 +985,16 @@
         <v>0.01523354237116092</v>
       </c>
       <c r="I19">
-        <v>0.04349338935124725</v>
+        <v>0.05359557010566041</v>
       </c>
       <c r="J19">
         <v>0.04349338935124725</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.04349338935124725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>40969</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>31.65999984741211</v>
       </c>
       <c r="F20">
-        <v>21.61528015136719</v>
+        <v>21.61528968811035</v>
       </c>
       <c r="G20">
         <v>26300</v>
@@ -966,13 +1020,16 @@
         <v>0.05568523137843551</v>
       </c>
       <c r="I20">
-        <v>0.06205972541473326</v>
+        <v>0.05324906027905724</v>
       </c>
       <c r="J20">
         <v>0.06205972541473326</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.06205972541473326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>41000</v>
       </c>
@@ -998,13 +1055,16 @@
         <v>0.001895118958672004</v>
       </c>
       <c r="I21">
-        <v>-0.01977754279746036</v>
+        <v>0.05177942295595343</v>
       </c>
       <c r="J21">
         <v>-0.01977754279746036</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.01977754279746036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>41030</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>28.77000045776367</v>
       </c>
       <c r="F22">
-        <v>19.64219093322754</v>
+        <v>19.64219284057617</v>
       </c>
       <c r="G22">
         <v>19500</v>
@@ -1030,13 +1090,16 @@
         <v>-0.09300122696877977</v>
       </c>
       <c r="I22">
-        <v>-0.1419623768215663</v>
+        <v>0.05534220779890522</v>
       </c>
       <c r="J22">
         <v>-0.1419623768215663</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.1419623768215663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>41061</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>28.98999977111816</v>
       </c>
       <c r="F23">
-        <v>20.21561622619629</v>
+        <v>20.21561813354492</v>
       </c>
       <c r="G23">
         <v>67000</v>
@@ -1062,13 +1125,16 @@
         <v>0.007646830373793989</v>
       </c>
       <c r="I23">
-        <v>-0.1101903578321655</v>
+        <v>0.05394634870433488</v>
       </c>
       <c r="J23">
         <v>-0.1101903578321655</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.1101903578321655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>41091</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>30.34000015258789</v>
       </c>
       <c r="F24">
-        <v>21.15701675415039</v>
+        <v>21.15701866149902</v>
       </c>
       <c r="G24">
         <v>12600</v>
@@ -1094,13 +1160,16 @@
         <v>0.04656779552011892</v>
       </c>
       <c r="I24">
-        <v>-0.1076470543356502</v>
+        <v>0.05341178148975866</v>
       </c>
       <c r="J24">
         <v>-0.1076470543356502</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.1076470543356502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>41122</v>
       </c>
@@ -1126,13 +1195,16 @@
         <v>0.02307187737043392</v>
       </c>
       <c r="I25">
-        <v>-0.04697570751098323</v>
+        <v>0.05230185698649314</v>
       </c>
       <c r="J25">
         <v>-0.04697570751098323</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.04697570751098323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>41153</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F26">
-        <v>23.4303150177002</v>
+        <v>23.43031120300293</v>
       </c>
       <c r="G26">
         <v>82100</v>
@@ -1158,13 +1230,16 @@
         <v>0.08247414571799006</v>
       </c>
       <c r="I26">
-        <v>0.1594202555162723</v>
+        <v>0.05342437197039713</v>
       </c>
       <c r="J26">
         <v>0.1594202555162723</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.1594202555162723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>41183</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>34.43999862670898</v>
       </c>
       <c r="F27">
-        <v>24.01606369018555</v>
+        <v>24.01607131958008</v>
       </c>
       <c r="G27">
         <v>31200</v>
@@ -1190,13 +1265,16 @@
         <v>0.02500000567663307</v>
       </c>
       <c r="I27">
-        <v>0.1430467834713582</v>
+        <v>0.05238430417648446</v>
       </c>
       <c r="J27">
         <v>0.1430467834713582</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.1430467834713582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>41214</v>
       </c>
@@ -1222,13 +1300,16 @@
         <v>0.01161444662685596</v>
       </c>
       <c r="I28">
-        <v>0.1886728347802002</v>
+        <v>0.05132623952907438</v>
       </c>
       <c r="J28">
         <v>0.1886728347802002</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.1886728347802002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>41244</v>
       </c>
@@ -1254,13 +1335,16 @@
         <v>-0.007462638358050944</v>
       </c>
       <c r="I29">
-        <v>0.2547170718848293</v>
+        <v>0.05045122204444556</v>
       </c>
       <c r="J29">
         <v>0.2547170718848293</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.2547170718848293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>41275</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>36.70000076293945</v>
       </c>
       <c r="F30">
-        <v>26.30234909057617</v>
+        <v>26.3023509979248</v>
       </c>
       <c r="G30">
         <v>222600</v>
@@ -1286,13 +1370,16 @@
         <v>0.06130707980416861</v>
       </c>
       <c r="I30">
-        <v>0.2423831965302528</v>
+        <v>0.05044645528997258</v>
       </c>
       <c r="J30">
         <v>0.2423831965302528</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.2423831965302528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>41306</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>36.31000137329102</v>
       </c>
       <c r="F31">
-        <v>26.02284049987793</v>
+        <v>26.02284240722656</v>
       </c>
       <c r="G31">
         <v>52200</v>
@@ -1318,13 +1405,16 @@
         <v>-0.01062668614552909</v>
       </c>
       <c r="I31">
-        <v>0.2107369673360024</v>
+        <v>0.0497136064503618</v>
       </c>
       <c r="J31">
         <v>0.2107369673360024</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.2107369673360024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>41334</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>37.27000045776367</v>
       </c>
       <c r="F32">
-        <v>26.71086120605469</v>
+        <v>26.71085548400879</v>
       </c>
       <c r="G32">
         <v>38000</v>
@@ -1350,13 +1440,16 @@
         <v>0.02643897130719508</v>
       </c>
       <c r="I32">
-        <v>0.1771952191215858</v>
+        <v>0.04892900941318321</v>
       </c>
       <c r="J32">
         <v>0.1771952191215858</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.1771952191215858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>41365</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>39.61000061035156</v>
       </c>
       <c r="F33">
-        <v>28.38789939880371</v>
+        <v>28.38790321350098</v>
       </c>
       <c r="G33">
         <v>79800</v>
@@ -1382,13 +1475,16 @@
         <v>0.06278508515822812</v>
       </c>
       <c r="I33">
-        <v>0.2487390122254918</v>
+        <v>0.04897626434693523</v>
       </c>
       <c r="J33">
         <v>0.2487390122254918</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.2487390122254918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>41395</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>35.2599983215332</v>
       </c>
       <c r="F34">
-        <v>25.27031707763672</v>
+        <v>25.27032089233398</v>
       </c>
       <c r="G34">
         <v>66200</v>
@@ -1414,13 +1510,16 @@
         <v>-0.1098208084268886</v>
       </c>
       <c r="I34">
-        <v>0.2255821258431083</v>
+        <v>0.0528660995561001</v>
       </c>
       <c r="J34">
         <v>0.2255821258431083</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.2255821258431083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>41426</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>33.54999923706055</v>
       </c>
       <c r="F35">
-        <v>24.55476570129395</v>
+        <v>24.55476379394531</v>
       </c>
       <c r="G35">
         <v>204800</v>
@@ -1446,13 +1545,16 @@
         <v>-0.04849685666117465</v>
       </c>
       <c r="I35">
-        <v>0.157295601998775</v>
+        <v>0.05300156901293028</v>
       </c>
       <c r="J35">
         <v>0.157295601998775</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.157295601998775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>41456</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>35.18000030517578</v>
       </c>
       <c r="F36">
-        <v>25.74773979187012</v>
+        <v>25.74774169921875</v>
       </c>
       <c r="G36">
         <v>37600</v>
@@ -1478,13 +1580,16 @@
         <v>0.04858423562390657</v>
       </c>
       <c r="I36">
-        <v>0.1595253832645436</v>
+        <v>0.05266179835414685</v>
       </c>
       <c r="J36">
         <v>0.1595253832645436</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.1595253832645436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>41487</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>33.84999847412109</v>
       </c>
       <c r="F37">
-        <v>24.77432823181152</v>
+        <v>24.77433204650879</v>
       </c>
       <c r="G37">
         <v>46600</v>
@@ -1510,13 +1615,16 @@
         <v>-0.03780562306757607</v>
       </c>
       <c r="I37">
-        <v>0.09052826919177326</v>
+        <v>0.05247822210792997</v>
       </c>
       <c r="J37">
         <v>0.09052826919177326</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.09052826919177326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>41518</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>38.45999908447266</v>
       </c>
       <c r="F38">
-        <v>28.1483268737793</v>
+        <v>28.14831924438477</v>
       </c>
       <c r="G38">
         <v>10900</v>
@@ -1542,13 +1650,16 @@
         <v>0.1361890935940806</v>
       </c>
       <c r="I38">
-        <v>0.1446428818767584</v>
+        <v>0.05599100932973014</v>
       </c>
       <c r="J38">
         <v>0.1446428818767584</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.1446428818767584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>41548</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>39.52999877929688</v>
       </c>
       <c r="F39">
-        <v>28.93144226074219</v>
+        <v>28.93144035339355</v>
       </c>
       <c r="G39">
         <v>52300</v>
@@ -1574,13 +1685,16 @@
         <v>0.02782110557189821</v>
       </c>
       <c r="I39">
-        <v>0.1477932739707046</v>
+        <v>0.05527613699387381</v>
       </c>
       <c r="J39">
         <v>0.1477932739707046</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.1477932739707046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>41579</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>37.95999908447266</v>
       </c>
       <c r="F40">
-        <v>27.78238296508789</v>
+        <v>27.78237915039062</v>
       </c>
       <c r="G40">
         <v>35800</v>
@@ -1606,13 +1720,16 @@
         <v>-0.03971666438923538</v>
       </c>
       <c r="I40">
-        <v>0.0895522077560329</v>
+        <v>0.05515511054194238</v>
       </c>
       <c r="J40">
         <v>0.0895522077560329</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.0895522077560329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>41609</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>37.34000015258789</v>
       </c>
       <c r="F41">
-        <v>27.88499641418457</v>
+        <v>27.88499450683594</v>
       </c>
       <c r="G41">
         <v>10500</v>
@@ -1638,13 +1755,16 @@
         <v>-0.01633295434241389</v>
       </c>
       <c r="I41">
-        <v>0.07981486915522873</v>
+        <v>0.05459036648207398</v>
       </c>
       <c r="J41">
         <v>0.07981486915522873</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.07981486915522873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>41640</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>37.68000030517578</v>
       </c>
       <c r="F42">
-        <v>28.13890838623047</v>
+        <v>28.13889694213867</v>
       </c>
       <c r="G42">
         <v>21400</v>
@@ -1670,13 +1790,16 @@
         <v>0.009105520921223853</v>
       </c>
       <c r="I42">
-        <v>0.02670298424696371</v>
+        <v>0.05388598852664097</v>
       </c>
       <c r="J42">
         <v>0.02670298424696371</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.02670298424696371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>41671</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>39.93000030517578</v>
       </c>
       <c r="F43">
-        <v>29.81917572021484</v>
+        <v>29.81917381286621</v>
       </c>
       <c r="G43">
         <v>13700</v>
@@ -1702,13 +1825,16 @@
         <v>0.05971337531255116</v>
       </c>
       <c r="I43">
-        <v>0.09969701996617308</v>
+        <v>0.05378231958499285</v>
       </c>
       <c r="J43">
         <v>0.09969701996617308</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.09969701996617308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>41699</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>42.95000076293945</v>
       </c>
       <c r="F44">
-        <v>32.07446670532227</v>
+        <v>32.07447052001953</v>
       </c>
       <c r="G44">
         <v>140600</v>
@@ -1734,13 +1860,16 @@
         <v>0.07563236751020552</v>
       </c>
       <c r="I44">
-        <v>0.1524014015404336</v>
+        <v>0.0540575240397253</v>
       </c>
       <c r="J44">
         <v>0.1524014015404336</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.1524014015404336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>41730</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>43.40999984741211</v>
       </c>
       <c r="F45">
-        <v>32.41798782348633</v>
+        <v>32.41799545288086</v>
       </c>
       <c r="G45">
         <v>69400</v>
@@ -1766,13 +1895,16 @@
         <v>0.01071010654951099</v>
       </c>
       <c r="I45">
-        <v>0.09593534911654267</v>
+        <v>0.0534106527411993</v>
       </c>
       <c r="J45">
         <v>0.09593534911654267</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.09593534911654267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>41760</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>42.31000137329102</v>
       </c>
       <c r="F46">
-        <v>31.59652328491211</v>
+        <v>31.59652900695801</v>
       </c>
       <c r="G46">
         <v>32300</v>
@@ -1798,13 +1930,16 @@
         <v>-0.02533974839870146</v>
       </c>
       <c r="I46">
-        <v>0.1999433745705084</v>
+        <v>0.05308940570478895</v>
       </c>
       <c r="J46">
         <v>0.1999433745705084</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.1999433745705084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>41791</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>42.13000106811523</v>
       </c>
       <c r="F47">
-        <v>32.19053268432617</v>
+        <v>32.19053649902344</v>
       </c>
       <c r="G47">
         <v>135000</v>
@@ -1830,13 +1965,16 @@
         <v>-0.004254320475853501</v>
       </c>
       <c r="I47">
-        <v>0.2557377653104953</v>
+        <v>0.05253453580612438</v>
       </c>
       <c r="J47">
         <v>0.2557377653104953</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.2557377653104953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>41821</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F48">
-        <v>31.02149391174316</v>
+        <v>31.0214900970459</v>
       </c>
       <c r="G48">
         <v>38100</v>
@@ -1862,13 +2000,16 @@
         <v>-0.03631622490396935</v>
       </c>
       <c r="I48">
-        <v>0.1540647561662445</v>
+        <v>0.05241501235650226</v>
       </c>
       <c r="J48">
         <v>0.1540647561662445</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.1540647561662445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>41852</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>40.83000183105469</v>
       </c>
       <c r="F49">
-        <v>31.19723701477051</v>
+        <v>31.19723320007324</v>
       </c>
       <c r="G49">
         <v>7800</v>
@@ -1894,13 +2035,16 @@
         <v>0.005665107526548363</v>
       </c>
       <c r="I49">
-        <v>0.2062039489387253</v>
+        <v>0.05184605721881357</v>
       </c>
       <c r="J49">
         <v>0.2062039489387253</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.2062039489387253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>41883</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>38.4900016784668</v>
       </c>
       <c r="F50">
-        <v>29.4092960357666</v>
+        <v>29.40928840637207</v>
       </c>
       <c r="G50">
         <v>11900</v>
@@ -1926,13 +2070,16 @@
         <v>-0.05731080204870631</v>
       </c>
       <c r="I50">
-        <v>0.0007800986663635268</v>
+        <v>0.05220179408520891</v>
       </c>
       <c r="J50">
         <v>0.0007800986663635268</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.0007800986663635268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>41913</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>39.77999877929688</v>
       </c>
       <c r="F51">
-        <v>30.39495277404785</v>
+        <v>30.39494895935059</v>
       </c>
       <c r="G51">
         <v>7100</v>
@@ -1958,13 +2105,16 @@
         <v>0.03351512196872064</v>
       </c>
       <c r="I51">
-        <v>0.006324310845436498</v>
+        <v>0.0517783035594945</v>
       </c>
       <c r="J51">
         <v>0.006324310845436498</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.006324310845436498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>41944</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>40.0099983215332</v>
       </c>
       <c r="F52">
-        <v>30.57068061828613</v>
+        <v>30.57068634033203</v>
       </c>
       <c r="G52">
         <v>18000</v>
@@ -1990,13 +2140,16 @@
         <v>0.005781788569486634</v>
       </c>
       <c r="I52">
-        <v>0.0540041961670934</v>
+        <v>0.05124930514280702</v>
       </c>
       <c r="J52">
         <v>0.0540041961670934</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.0540041961670934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>41974</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>39.97999954223633</v>
       </c>
       <c r="F53">
-        <v>31.40387535095215</v>
+        <v>31.40388870239258</v>
       </c>
       <c r="G53">
         <v>73500</v>
@@ -2022,13 +2175,16 @@
         <v>-0.0007497820683668444</v>
       </c>
       <c r="I53">
-        <v>0.07070164378308053</v>
+        <v>0.05075250544994025</v>
       </c>
       <c r="J53">
         <v>0.07070164378308053</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.07070164378308053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>42005</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>38.54999923706055</v>
       </c>
       <c r="F54">
-        <v>30.2806282043457</v>
+        <v>30.2806339263916</v>
       </c>
       <c r="G54">
         <v>28300</v>
@@ -2054,13 +2210,16 @@
         <v>-0.03576789198471797</v>
       </c>
       <c r="I54">
-        <v>0.02308914344051272</v>
+        <v>0.05063088205094309</v>
       </c>
       <c r="J54">
         <v>0.02308914344051272</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.02308914344051272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>42036</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>40.95000076293945</v>
       </c>
       <c r="F55">
-        <v>32.16580581665039</v>
+        <v>32.16580963134766</v>
       </c>
       <c r="G55">
         <v>14100</v>
@@ -2086,13 +2245,16 @@
         <v>0.0622568501524543</v>
       </c>
       <c r="I55">
-        <v>0.02554471449957529</v>
+        <v>0.05069393556880233</v>
       </c>
       <c r="J55">
         <v>0.02554471449957529</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.02554471449957529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>42064</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F56">
-        <v>31.46672439575195</v>
+        <v>31.46672058105469</v>
       </c>
       <c r="G56">
         <v>25300</v>
@@ -2118,13 +2280,16 @@
         <v>-0.02173380642409917</v>
       </c>
       <c r="I56">
-        <v>-0.0672875282494092</v>
+        <v>0.05038678245860978</v>
       </c>
       <c r="J56">
         <v>-0.0672875282494092</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.0672875282494092</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>42095</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>40.54999923706055</v>
       </c>
       <c r="F57">
-        <v>31.85160827636719</v>
+        <v>31.85161209106445</v>
       </c>
       <c r="G57">
         <v>25400</v>
@@ -2150,13 +2315,16 @@
         <v>0.01223159877613544</v>
       </c>
       <c r="I57">
-        <v>-0.06588345128782724</v>
+        <v>0.04992075004130101</v>
       </c>
       <c r="J57">
         <v>-0.06588345128782724</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.06588345128782724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>42125</v>
       </c>
@@ -2182,13 +2350,16 @@
         <v>-0.05992602591604712</v>
       </c>
       <c r="I58">
-        <v>-0.09903101643601619</v>
+        <v>0.05030183211031135</v>
       </c>
       <c r="J58">
         <v>-0.09903101643601619</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.09903101643601619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>42156</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>34.68000030517578</v>
       </c>
       <c r="F59">
-        <v>27.94142723083496</v>
+        <v>27.94142913818359</v>
       </c>
       <c r="G59">
         <v>8800</v>
@@ -2214,13 +2385,16 @@
         <v>-0.0902413096300394</v>
       </c>
       <c r="I59">
-        <v>-0.1768336238799137</v>
+        <v>0.05149551642327695</v>
       </c>
       <c r="J59">
         <v>-0.1768336238799137</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1768336238799137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>42186</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>34.86000061035156</v>
       </c>
       <c r="F60">
-        <v>28.08644866943359</v>
+        <v>28.08645248413086</v>
       </c>
       <c r="G60">
         <v>12500</v>
@@ -2246,13 +2420,16 @@
         <v>0.005190320172774543</v>
       </c>
       <c r="I60">
-        <v>-0.1413792630418022</v>
+        <v>0.05104182156194237</v>
       </c>
       <c r="J60">
         <v>-0.1413792630418022</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.1413792630418022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>42217</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>32.22000122070312</v>
       </c>
       <c r="F61">
-        <v>25.95942306518555</v>
+        <v>25.95942687988281</v>
       </c>
       <c r="G61">
         <v>38200</v>
@@ -2278,13 +2455,16 @@
         <v>-0.07573147858363771</v>
       </c>
       <c r="I61">
-        <v>-0.2108743625821472</v>
+        <v>0.05169374533658799</v>
       </c>
       <c r="J61">
         <v>-0.2108743625821472</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.2108743625821472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>42248</v>
       </c>
@@ -2310,13 +2490,16 @@
         <v>-0.007448841383425608</v>
       </c>
       <c r="I62">
-        <v>-0.1691348883435483</v>
+        <v>0.05127563159108479</v>
       </c>
       <c r="J62">
         <v>-0.1691348883435483</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.1691348883435483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>42278</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>36.34000015258789</v>
       </c>
       <c r="F63">
-        <v>29.27888488769531</v>
+        <v>29.27887535095215</v>
       </c>
       <c r="G63">
         <v>19700</v>
@@ -2342,13 +2525,16 @@
         <v>0.1363352305428667</v>
       </c>
       <c r="I63">
-        <v>-0.08647558401885369</v>
+        <v>0.05359740893591555</v>
       </c>
       <c r="J63">
         <v>-0.08647558401885369</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.08647558401885369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>42309</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>35.77000045776367</v>
       </c>
       <c r="F64">
-        <v>28.81962585449219</v>
+        <v>28.81963539123535</v>
       </c>
       <c r="G64">
         <v>43800</v>
@@ -2374,13 +2560,16 @@
         <v>-0.01568518691334198</v>
       </c>
       <c r="I64">
-        <v>-0.1059734576766423</v>
+        <v>0.05322835381647784</v>
       </c>
       <c r="J64">
         <v>-0.1059734576766423</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1059734576766423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>42339</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>37.47999954223633</v>
       </c>
       <c r="F65">
-        <v>30.77887725830078</v>
+        <v>30.77887916564941</v>
       </c>
       <c r="G65">
         <v>11300</v>
@@ -2406,13 +2595,16 @@
         <v>0.04780539733265532</v>
       </c>
       <c r="I65">
-        <v>-0.06253126634878792</v>
+        <v>0.05306232088261918</v>
       </c>
       <c r="J65">
         <v>-0.06253126634878792</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.06253126634878792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
@@ -2438,13 +2630,16 @@
         <v>-0.06430095722643414</v>
       </c>
       <c r="I66">
-        <v>-0.09027236345288392</v>
+        <v>0.05337695208415423</v>
       </c>
       <c r="J66">
         <v>-0.09027236345288392</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.09027236345288392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>42401</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>36.13000106811523</v>
       </c>
       <c r="F67">
-        <v>29.67024803161621</v>
+        <v>29.67024993896484</v>
       </c>
       <c r="G67">
         <v>49000</v>
@@ -2470,13 +2665,16 @@
         <v>0.03022530317978456</v>
       </c>
       <c r="I67">
-        <v>-0.117704508059165</v>
+        <v>0.05304825058814259</v>
       </c>
       <c r="J67">
         <v>-0.117704508059165</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.117704508059165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>42430</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>41.13000106811523</v>
       </c>
       <c r="F68">
-        <v>33.77627944946289</v>
+        <v>33.77628326416016</v>
       </c>
       <c r="G68">
         <v>17800</v>
@@ -2502,13 +2700,16 @@
         <v>0.1383891461994033</v>
       </c>
       <c r="I68">
-        <v>0.02670992656374738</v>
+        <v>0.05511383166024519</v>
       </c>
       <c r="J68">
         <v>0.02670992656374738</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.02670992656374738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>42461</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>41.81999969482422</v>
       </c>
       <c r="F69">
-        <v>34.34292602539062</v>
+        <v>34.34291839599609</v>
       </c>
       <c r="G69">
         <v>61500</v>
@@ -2534,13 +2735,16 @@
         <v>0.0167760420323424</v>
       </c>
       <c r="I69">
-        <v>0.03131937069441326</v>
+        <v>0.0547058898284658</v>
       </c>
       <c r="J69">
         <v>0.03131937069441326</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.03131937069441326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>42491</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>41.97000122070312</v>
       </c>
       <c r="F70">
-        <v>34.46609878540039</v>
+        <v>34.46610260009766</v>
       </c>
       <c r="G70">
         <v>64100</v>
@@ -2566,13 +2770,16 @@
         <v>0.003586837086884787</v>
       </c>
       <c r="I70">
-        <v>0.1009969149185388</v>
+        <v>0.05429857293259742</v>
       </c>
       <c r="J70">
         <v>0.1009969149185388</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.1009969149185388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>42522</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>43.02999877929688</v>
       </c>
       <c r="F71">
-        <v>35.78597640991211</v>
+        <v>35.78598022460938</v>
       </c>
       <c r="G71">
         <v>40400</v>
@@ -2598,13 +2805,16 @@
         <v>0.02525607642991612</v>
       </c>
       <c r="I71">
-        <v>0.2407727335825574</v>
+        <v>0.05393881330012403</v>
       </c>
       <c r="J71">
         <v>0.2407727335825574</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0.2407727335825574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>42552</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>46.52000045776367</v>
       </c>
       <c r="F72">
-        <v>38.68844604492188</v>
+        <v>38.68843841552734</v>
       </c>
       <c r="G72">
         <v>111300</v>
@@ -2630,13 +2840,16 @@
         <v>0.08110624628104679</v>
       </c>
       <c r="I72">
-        <v>0.3344807700304431</v>
+        <v>0.05425384188225549</v>
       </c>
       <c r="J72">
         <v>0.3344807700304431</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.3344807700304431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>42583</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>46.81999969482422</v>
       </c>
       <c r="F73">
-        <v>38.93793869018555</v>
+        <v>38.93794250488281</v>
       </c>
       <c r="G73">
         <v>36300</v>
@@ -2662,13 +2875,16 @@
         <v>0.006448822745238836</v>
       </c>
       <c r="I73">
-        <v>0.4531346344189395</v>
+        <v>0.05386583399299478</v>
       </c>
       <c r="J73">
         <v>0.4531346344189395</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.4531346344189395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>42614</v>
       </c>
@@ -2694,13 +2910,16 @@
         <v>0.0006407257473817207</v>
       </c>
       <c r="I74">
-        <v>0.4649780845758236</v>
+        <v>0.05349434377068333</v>
       </c>
       <c r="J74">
         <v>0.4649780845758236</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.4649780845758236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>42644</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>42.88999938964844</v>
       </c>
       <c r="F75">
-        <v>35.6695442199707</v>
+        <v>35.66954803466797</v>
       </c>
       <c r="G75">
         <v>38100</v>
@@ -2726,13 +2945,16 @@
         <v>-0.08452506325395237</v>
       </c>
       <c r="I75">
-        <v>0.180242135651012</v>
+        <v>0.05423617218763577</v>
       </c>
       <c r="J75">
         <v>0.180242135651012</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.180242135651012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>42675</v>
       </c>
@@ -2758,13 +2980,16 @@
         <v>-0.01515499464750558</v>
       </c>
       <c r="I76">
-        <v>0.180877862395969</v>
+        <v>0.05392865442131271</v>
       </c>
       <c r="J76">
         <v>0.180877862395969</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.180877862395969</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>42705</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>39.72999954223633</v>
       </c>
       <c r="F77">
-        <v>34.18408203125</v>
+        <v>34.18407821655273</v>
       </c>
       <c r="G77">
         <v>81600</v>
@@ -2790,13 +3015,16 @@
         <v>-0.05942239669725258</v>
       </c>
       <c r="I77">
-        <v>0.06003201780897749</v>
+        <v>0.05411510867039534</v>
       </c>
       <c r="J77">
         <v>0.06003201780897749</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.06003201780897749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>42736</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>43.47000122070312</v>
       </c>
       <c r="F78">
-        <v>37.40200805664062</v>
+        <v>37.40201568603516</v>
       </c>
       <c r="G78">
         <v>35200</v>
@@ -2822,13 +3050,16 @@
         <v>0.09413545737625451</v>
       </c>
       <c r="I78">
-        <v>0.2395210036776423</v>
+        <v>0.05468587864270207</v>
       </c>
       <c r="J78">
         <v>0.2395210036776423</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.2395210036776423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>42767</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>43.13999938964844</v>
       </c>
       <c r="F79">
-        <v>37.11808395385742</v>
+        <v>37.11807632446289</v>
       </c>
       <c r="G79">
         <v>80400</v>
@@ -2854,13 +3085,16 @@
         <v>-0.007591484283131833</v>
       </c>
       <c r="I79">
-        <v>0.1940215365152462</v>
+        <v>0.05435253709541572</v>
       </c>
       <c r="J79">
         <v>0.1940215365152462</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.1940215365152462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>42795</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>42.22000122070312</v>
       </c>
       <c r="F80">
-        <v>36.32649612426758</v>
+        <v>36.32650375366211</v>
       </c>
       <c r="G80">
         <v>49800</v>
@@ -2886,13 +3120,16 @@
         <v>-0.02132587348079729</v>
       </c>
       <c r="I80">
-        <v>0.02650134024511086</v>
+        <v>0.05409641967936226</v>
       </c>
       <c r="J80">
         <v>0.02650134024511086</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.02650134024511086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>42826</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>42.58000183105469</v>
       </c>
       <c r="F81">
-        <v>36.63624572753906</v>
+        <v>36.63624954223633</v>
       </c>
       <c r="G81">
         <v>32500</v>
@@ -2918,13 +3155,16 @@
         <v>0.008526778776478006</v>
       </c>
       <c r="I81">
-        <v>0.01817317412186714</v>
+        <v>0.05374878699556225</v>
       </c>
       <c r="J81">
         <v>0.01817317412186714</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.01817317412186714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>42856</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>44.15000152587891</v>
       </c>
       <c r="F82">
-        <v>37.98709106445312</v>
+        <v>37.98709487915039</v>
       </c>
       <c r="G82">
         <v>60200</v>
@@ -2950,13 +3190,16 @@
         <v>0.03687176203170517</v>
       </c>
       <c r="I82">
-        <v>0.05194186899619213</v>
+        <v>0.05351138544012098</v>
       </c>
       <c r="J82">
         <v>0.05194186899619213</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.05194186899619213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>42887</v>
       </c>
@@ -2982,13 +3225,16 @@
         <v>0.04779154524870188</v>
       </c>
       <c r="I83">
-        <v>0.07506390039198396</v>
+        <v>0.05336458159365603</v>
       </c>
       <c r="J83">
         <v>0.07506390039198396</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0.07506390039198396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>42917</v>
       </c>
@@ -3014,13 +3260,16 @@
         <v>0.02983141197981554</v>
       </c>
       <c r="I84">
-        <v>0.02407564318279909</v>
+        <v>0.05308923639755302</v>
       </c>
       <c r="J84">
         <v>0.02407564318279909</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0.02407564318279909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>42948</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>46.59000015258789</v>
       </c>
       <c r="F85">
-        <v>40.8316764831543</v>
+        <v>40.83166885375977</v>
       </c>
       <c r="G85">
         <v>16200</v>
@@ -3046,13 +3295,16 @@
         <v>-0.02204028653469503</v>
       </c>
       <c r="I85">
-        <v>-0.004912420840142651</v>
+        <v>0.05286885438288391</v>
       </c>
       <c r="J85">
         <v>-0.004912420840142651</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.004912420840142651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>42979</v>
       </c>
@@ -3078,13 +3330,16 @@
         <v>0.01137580548532013</v>
       </c>
       <c r="I86">
-        <v>0.005763083597810859</v>
+        <v>0.05255081902584417</v>
       </c>
       <c r="J86">
         <v>0.005763083597810859</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0.005763083597810859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>43009</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>45.56999969482422</v>
       </c>
       <c r="F87">
-        <v>39.93774032592773</v>
+        <v>39.937744140625</v>
       </c>
       <c r="G87">
         <v>41700</v>
@@ -3110,13 +3365,16 @@
         <v>-0.03289472139634764</v>
       </c>
       <c r="I87">
-        <v>0.06248543584317701</v>
+        <v>0.05242397733067323</v>
       </c>
       <c r="J87">
         <v>0.06248543584317701</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.06248543584317701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>43040</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>45.52000045776367</v>
       </c>
       <c r="F88">
-        <v>39.89392471313477</v>
+        <v>39.89392852783203</v>
       </c>
       <c r="G88">
         <v>22100</v>
@@ -3142,13 +3400,16 @@
         <v>-0.001097196343984752</v>
       </c>
       <c r="I88">
-        <v>0.07765148316670079</v>
+        <v>0.05212274573140499</v>
       </c>
       <c r="J88">
         <v>0.07765148316670079</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.07765148316670079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>43070</v>
       </c>
@@ -3174,13 +3435,16 @@
         <v>0.04283832915926244</v>
       </c>
       <c r="I89">
-        <v>0.1948150457499633</v>
+        <v>0.05195868474198777</v>
       </c>
       <c r="J89">
         <v>0.1948150457499633</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1948150457499633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>43101</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>49.61999893188477</v>
       </c>
       <c r="F90">
-        <v>44.32149505615234</v>
+        <v>44.32149887084961</v>
       </c>
       <c r="G90">
         <v>37800</v>
@@ -3206,13 +3470,16 @@
         <v>0.04529171383808528</v>
       </c>
       <c r="I90">
-        <v>0.1414768239816067</v>
+        <v>0.05181431001311418</v>
       </c>
       <c r="J90">
         <v>0.1414768239816067</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.1414768239816067</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>43132</v>
       </c>
@@ -3238,13 +3505,16 @@
         <v>-0.02821438414586563</v>
       </c>
       <c r="I91">
-        <v>0.1177561869014223</v>
+        <v>0.0516629741800724</v>
       </c>
       <c r="J91">
         <v>0.1177561869014223</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.1177561869014223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>43160</v>
       </c>
@@ -3270,13 +3540,16 @@
         <v>0.01202816262286621</v>
       </c>
       <c r="I92">
-        <v>0.1558502564213768</v>
+        <v>0.05137391096901658</v>
       </c>
       <c r="J92">
         <v>0.1558502564213768</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.1558502564213768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>43191</v>
       </c>
@@ -3302,13 +3575,16 @@
         <v>-0.02581963814000043</v>
       </c>
       <c r="I93">
-        <v>0.1164865869229532</v>
+        <v>0.05120895837522916</v>
       </c>
       <c r="J93">
         <v>0.1164865869229532</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.1164865869229532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>43221</v>
       </c>
@@ -3334,13 +3610,16 @@
         <v>0.02650396081758744</v>
       </c>
       <c r="I94">
-        <v>0.105322707824959</v>
+        <v>0.05096571244812666</v>
       </c>
       <c r="J94">
         <v>0.105322707824959</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.105322707824959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>43252</v>
       </c>
@@ -3366,13 +3645,16 @@
         <v>-0.009221327253581268</v>
       </c>
       <c r="I95">
-        <v>0.04517942560354649</v>
+        <v>0.05071802817976537</v>
       </c>
       <c r="J95">
         <v>0.04517942560354649</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.04517942560354649</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>43282</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>48.27000045776367</v>
       </c>
       <c r="F96">
-        <v>43.83094024658203</v>
+        <v>43.8309440612793</v>
       </c>
       <c r="G96">
         <v>78700</v>
@@ -3398,13 +3680,16 @@
         <v>-0.001654560886909628</v>
       </c>
       <c r="I96">
-        <v>0.01322420395018153</v>
+        <v>0.05045332436033602</v>
       </c>
       <c r="J96">
         <v>0.01322420395018153</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.01322420395018153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>43313</v>
       </c>
@@ -3430,13 +3715,16 @@
         <v>0.01615907959187557</v>
       </c>
       <c r="I97">
-        <v>0.05280101044034913</v>
+        <v>0.05019239784135206</v>
       </c>
       <c r="J97">
         <v>0.05280101044034913</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.05280101044034913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>43344</v>
       </c>
@@ -3462,13 +3750,16 @@
         <v>-0.009174327623627132</v>
       </c>
       <c r="I98">
-        <v>0.03140915907862762</v>
+        <v>0.04995628423120786</v>
       </c>
       <c r="J98">
         <v>0.03140915907862762</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.03140915907862762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>43374</v>
       </c>
@@ -3494,13 +3785,16 @@
         <v>-0.06748968893576068</v>
       </c>
       <c r="I99">
-        <v>-0.005486065430638898</v>
+        <v>0.05027160531591589</v>
       </c>
       <c r="J99">
         <v>-0.005486065430638898</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>-0.005486065430638898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>43405</v>
       </c>
@@ -3526,13 +3820,16 @@
         <v>0.0655340079590141</v>
       </c>
       <c r="I100">
-        <v>0.06085238202784837</v>
+        <v>0.05036622805688915</v>
       </c>
       <c r="J100">
         <v>0.06085238202784837</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.06085238202784837</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>43435</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>-0.04700767063008626</v>
       </c>
       <c r="I101">
-        <v>-0.03054562303881014</v>
+        <v>0.05040270547077166</v>
       </c>
       <c r="J101">
         <v>-0.03054562303881014</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>-0.03054562303881014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>43466</v>
       </c>
@@ -3590,13 +3890,16 @@
         <v>0.05606253782472903</v>
       </c>
       <c r="I102">
-        <v>-0.0205562369955683</v>
+        <v>0.05039139994726505</v>
       </c>
       <c r="J102">
         <v>-0.0205562369955683</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>-0.0205562369955683</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>43497</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>49.43999862670898</v>
       </c>
       <c r="F103">
-        <v>45.71186447143555</v>
+        <v>45.71187210083008</v>
       </c>
       <c r="G103">
         <v>18800</v>
@@ -3622,13 +3925,16 @@
         <v>0.01728395429961127</v>
       </c>
       <c r="I103">
-        <v>0.02530065066614018</v>
+        <v>0.05014917277179787</v>
       </c>
       <c r="J103">
         <v>0.02530065066614018</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.02530065066614018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>43525</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.05764567896405048</v>
       </c>
       <c r="I104">
-        <v>0.07151642895552257</v>
+        <v>0.05015024566004706</v>
       </c>
       <c r="J104">
         <v>0.07151642895552257</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.07151642895552257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>43556</v>
       </c>
@@ -3686,13 +3995,16 @@
         <v>0.0007649821156432424</v>
       </c>
       <c r="I105">
-        <v>0.1007572743643521</v>
+        <v>0.04990839678691365</v>
       </c>
       <c r="J105">
         <v>0.1007572743643521</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1007572743643521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>43586</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>-0.02350474515373824</v>
       </c>
       <c r="I106">
-        <v>0.04713113264382685</v>
+        <v>0.04975891071608097</v>
       </c>
       <c r="J106">
         <v>0.04713113264382685</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.04713113264382685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>43617</v>
       </c>
@@ -3750,13 +4065,16 @@
         <v>0.0446184473987572</v>
       </c>
       <c r="I107">
-        <v>0.1040331489707575</v>
+        <v>0.04965306635046186</v>
       </c>
       <c r="J107">
         <v>0.1040331489707575</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1040331489707575</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>43647</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>54.36999893188477</v>
       </c>
       <c r="F108">
-        <v>51.02800750732422</v>
+        <v>51.02800369262695</v>
       </c>
       <c r="G108">
         <v>28500</v>
@@ -3782,13 +4100,16 @@
         <v>0.01854623162158142</v>
       </c>
       <c r="I108">
-        <v>0.1263724552780687</v>
+        <v>0.04942744044360556</v>
       </c>
       <c r="J108">
         <v>0.1263724552780687</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1263724552780687</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>43678</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>51.56999969482422</v>
       </c>
       <c r="F109">
-        <v>48.40011596679688</v>
+        <v>48.40011215209961</v>
       </c>
       <c r="G109">
         <v>39800</v>
@@ -3814,13 +4135,16 @@
         <v>-0.05149897539207993</v>
       </c>
       <c r="I109">
-        <v>0.05137615692070474</v>
+        <v>0.04952583209607779</v>
       </c>
       <c r="J109">
         <v>0.05137615692070474</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.05137615692070474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>43709</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>51.86999893188477</v>
       </c>
       <c r="F110">
-        <v>48.68167495727539</v>
+        <v>48.68167877197266</v>
       </c>
       <c r="G110">
         <v>7700</v>
@@ -3846,13 +4170,16 @@
         <v>0.005817320900443068</v>
       </c>
       <c r="I110">
-        <v>0.06728396214878285</v>
+        <v>0.04929403281605062</v>
       </c>
       <c r="J110">
         <v>0.06728396214878285</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.06728396214878285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>43739</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>52.47999954223633</v>
       </c>
       <c r="F111">
-        <v>49.25417709350586</v>
+        <v>49.25418090820312</v>
       </c>
       <c r="G111">
         <v>21400</v>
@@ -3878,13 +4205,16 @@
         <v>0.01176018166402137</v>
       </c>
       <c r="I111">
-        <v>0.157987641121494</v>
+        <v>0.049067265311597</v>
       </c>
       <c r="J111">
         <v>0.157987641121494</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.157987641121494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>43770</v>
       </c>
@@ -3910,13 +4240,16 @@
         <v>0.06478661500639982</v>
       </c>
       <c r="I112">
-        <v>0.1571753988132019</v>
+        <v>0.04914927417798947</v>
       </c>
       <c r="J112">
         <v>0.1571753988132019</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1571753988132019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>43800</v>
       </c>
@@ -3942,13 +4275,16 @@
         <v>0.03346454717503167</v>
       </c>
       <c r="I113">
-        <v>0.2548891661355353</v>
+        <v>0.04898630389987009</v>
       </c>
       <c r="J113">
         <v>0.2548891661355353</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2548891661355353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>43831</v>
       </c>
@@ -3974,13 +4310,16 @@
         <v>-0.02753247017468208</v>
       </c>
       <c r="I114">
-        <v>0.1555555886965021</v>
+        <v>0.04888033161502734</v>
       </c>
       <c r="J114">
         <v>0.1555555886965021</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.1555555886965021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>43862</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>-0.05858263754391635</v>
       </c>
       <c r="I115">
-        <v>0.06937703075345136</v>
+        <v>0.04905880749548321</v>
       </c>
       <c r="J115">
         <v>0.06937703075345136</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.06937703075345136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>43891</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>-0.1569888292934123</v>
       </c>
       <c r="I116">
-        <v>-0.1476381924944793</v>
+        <v>0.05120087170294943</v>
       </c>
       <c r="J116">
         <v>-0.1476381924944793</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>-0.1476381924944793</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>43922</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>0.0917657657750186</v>
       </c>
       <c r="I117">
-        <v>-0.07013189098465988</v>
+        <v>0.05160491972328933</v>
       </c>
       <c r="J117">
         <v>-0.07013189098465988</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>-0.07013189098465988</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>43952</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>51.36999893188477</v>
       </c>
       <c r="F118">
-        <v>49.23683166503906</v>
+        <v>49.23683547973633</v>
       </c>
       <c r="G118">
         <v>46900</v>
@@ -4102,13 +4450,16 @@
         <v>0.05569254198460061</v>
       </c>
       <c r="I118">
-        <v>0.005283766454521777</v>
+        <v>0.05158376499799955</v>
       </c>
       <c r="J118">
         <v>0.005283766454521777</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.005283766454521777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>43983</v>
       </c>
@@ -4134,13 +4485,16 @@
         <v>0.1031730454985642</v>
       </c>
       <c r="I119">
-        <v>0.06163351508052428</v>
+        <v>0.05212812579298003</v>
       </c>
       <c r="J119">
         <v>0.06163351508052428</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.06163351508052428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>44013</v>
       </c>
@@ -4166,13 +4520,16 @@
         <v>0.0365273262114878</v>
       </c>
       <c r="I120">
-        <v>0.08037525901107356</v>
+        <v>0.05197306941388664</v>
       </c>
       <c r="J120">
         <v>0.08037525901107356</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.08037525901107356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>44044</v>
       </c>
@@ -4198,13 +4555,16 @@
         <v>0.03183518689905451</v>
       </c>
       <c r="I121">
-        <v>0.1752957333531773</v>
+        <v>0.05179901865633143</v>
       </c>
       <c r="J121">
         <v>0.1752957333531773</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1752957333531773</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>44075</v>
       </c>
@@ -4230,13 +4590,16 @@
         <v>-0.05065170209386027</v>
       </c>
       <c r="I122">
-        <v>0.1093117813842328</v>
+        <v>0.05185864376955304</v>
       </c>
       <c r="J122">
         <v>0.1093117813842328</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.1093117813842328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>44105</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>59.36999893188477</v>
       </c>
       <c r="F123">
-        <v>57.30039596557617</v>
+        <v>57.30039215087891</v>
       </c>
       <c r="G123">
         <v>33800</v>
@@ -4262,13 +4625,16 @@
         <v>0.03180392748071004</v>
       </c>
       <c r="I123">
-        <v>0.1312880992711005</v>
+        <v>0.0515007668512223</v>
       </c>
       <c r="J123">
         <v>0.1312880992711005</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.1312880992711005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>44136</v>
       </c>
@@ -4294,13 +4660,16 @@
         <v>0.1189153023464082</v>
       </c>
       <c r="I124">
-        <v>0.1887974057874582</v>
+        <v>0.05236235021515505</v>
       </c>
       <c r="J124">
         <v>0.1887974057874582</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.1887974057874582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>44166</v>
       </c>
@@ -4326,13 +4695,16 @@
         <v>0.02468763182469313</v>
       </c>
       <c r="I125">
-        <v>0.1787012934168697</v>
+        <v>0.05233344415880843</v>
       </c>
       <c r="J125">
         <v>0.1787012934168697</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.1787012934168697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>44197</v>
       </c>
@@ -4358,13 +4730,16 @@
         <v>-0.005435621393284129</v>
       </c>
       <c r="I126">
-        <v>0.2054842794192395</v>
+        <v>0.05234515664343398</v>
       </c>
       <c r="J126">
         <v>0.2054842794192395</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2054842794192395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>44228</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>62.52999877929688</v>
       </c>
       <c r="F127">
-        <v>61.0372314453125</v>
+        <v>61.03723526000977</v>
       </c>
       <c r="G127">
         <v>156500</v>
@@ -4390,13 +4765,16 @@
         <v>-0.0763662984046789</v>
       </c>
       <c r="I127">
-        <v>0.1827123140262894</v>
+        <v>0.05283569316292765</v>
       </c>
       <c r="J127">
         <v>0.1827123140262894</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1827123140262894</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>44256</v>
       </c>
@@ -4422,13 +4800,16 @@
         <v>-0.004317934799849432</v>
       </c>
       <c r="I128">
-        <v>0.3969037188206055</v>
+        <v>0.0527778648417024</v>
       </c>
       <c r="J128">
         <v>0.3969037188206055</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.3969037188206055</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>44287</v>
       </c>
@@ -4454,13 +4835,16 @@
         <v>0.03710249655583553</v>
       </c>
       <c r="I129">
-        <v>0.326962595505603</v>
+        <v>0.05235982919264182</v>
       </c>
       <c r="J129">
         <v>0.326962595505603</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.326962595505603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>44317</v>
       </c>
@@ -4486,13 +4870,16 @@
         <v>-0.0455319597429803</v>
       </c>
       <c r="I130">
-        <v>0.1997275131314478</v>
+        <v>0.05251013088580041</v>
       </c>
       <c r="J130">
         <v>0.1997275131314478</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.1997275131314478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>44348</v>
       </c>
@@ -4518,13 +4905,16 @@
         <v>-0.01476553353303289</v>
       </c>
       <c r="I131">
-        <v>0.07146644049085538</v>
+        <v>0.05244917574328374</v>
       </c>
       <c r="J131">
         <v>0.07146644049085538</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.07146644049085538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>44378</v>
       </c>
@@ -4550,13 +4940,16 @@
         <v>-0.004611373326169677</v>
       </c>
       <c r="I132">
-        <v>0.02894104357619343</v>
+        <v>0.05234774865684107</v>
       </c>
       <c r="J132">
         <v>0.02894104357619343</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.02894104357619343</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>44409</v>
       </c>
@@ -4582,13 +4975,16 @@
         <v>0.0498014924656256</v>
       </c>
       <c r="I133">
-        <v>0.04685695634365072</v>
+        <v>0.05230828396721986</v>
       </c>
       <c r="J133">
         <v>0.04685695634365072</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.04685695634365072</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>44440</v>
       </c>
@@ -4614,13 +5010,16 @@
         <v>-0.02679276189910473</v>
       </c>
       <c r="I134">
-        <v>0.07316647579921365</v>
+        <v>0.05128245002631734</v>
       </c>
       <c r="J134">
         <v>0.07316647579921365</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.07316647579921365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>44470</v>
       </c>
@@ -4646,13 +5045,16 @@
         <v>0.03384615631721277</v>
       </c>
       <c r="I135">
-        <v>0.0752905726987052</v>
+        <v>0.05125455070656441</v>
       </c>
       <c r="J135">
         <v>0.0752905726987052</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.0752905726987052</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>44501</v>
       </c>
@@ -4678,42 +5080,83 @@
         <v>-0.0812969707754394</v>
       </c>
       <c r="I136">
-        <v>-0.1171157420375731</v>
+        <v>0.05179792924975758</v>
       </c>
       <c r="J136">
         <v>-0.1171157420375731</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>-0.1171157420375731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>44531</v>
       </c>
       <c r="B137">
-        <v>59.04999923706055</v>
+        <v>58.84999847412109</v>
       </c>
       <c r="C137">
-        <v>59.27999877929688</v>
+        <v>59.06000137329102</v>
       </c>
       <c r="D137">
-        <v>59.04999923706055</v>
+        <v>58.81999969482422</v>
       </c>
       <c r="E137">
-        <v>59.22620010375977</v>
+        <v>58.88000106811523</v>
       </c>
       <c r="F137">
-        <v>59.22620010375977</v>
+        <v>58.88000106811523</v>
       </c>
       <c r="G137">
-        <v>5884</v>
+        <v>5700</v>
       </c>
       <c r="H137">
-        <v>0.009824357423530827</v>
+        <v>0.003921560720417716</v>
       </c>
       <c r="I137">
-        <v>-0.1299221335494865</v>
+        <v>0.05143242784857418</v>
       </c>
       <c r="J137">
-        <v>-0.1299221335494865</v>
+        <v>-0.1350080603483205</v>
+      </c>
+      <c r="K137">
+        <v>-0.1350080603483205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B138">
+        <v>58.52000045776367</v>
+      </c>
+      <c r="C138">
+        <v>59.36999893188477</v>
+      </c>
+      <c r="D138">
+        <v>58.38000106811523</v>
+      </c>
+      <c r="E138">
+        <v>58.40000152587891</v>
+      </c>
+      <c r="F138">
+        <v>58.40000152587891</v>
+      </c>
+      <c r="G138">
+        <v>126924</v>
+      </c>
+      <c r="H138">
+        <v>-0.008152165990639837</v>
+      </c>
+      <c r="I138">
+        <v>0.05111089784689968</v>
+      </c>
+      <c r="J138">
+        <v>-0.1373706918993407</v>
+      </c>
+      <c r="K138">
+        <v>-0.1373706918993407</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/ENZL.xlsx
+++ b/etf_dfs/ENZL.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>ENZL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,4760 +426,4813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ENZL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>27.70000076293945</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>27.70000076293945</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>27.14999961853027</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>27.28000068664551</v>
       </c>
-      <c r="F2">
-        <v>17.0624942779541</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>17.0625</v>
+      </c>
+      <c r="G2" t="n">
         <v>26000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>29.36000061035156</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>29.45999908447266</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>29.29999923706055</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>29.40999984741211</v>
       </c>
-      <c r="F3">
-        <v>18.39472579956055</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>18.39472770690918</v>
+      </c>
+      <c r="G3" t="n">
         <v>16600</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.07807914615666811</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>28.29000091552734</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>28.54999923706055</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>28.29000091552734</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>28.43000030517578</v>
       </c>
-      <c r="F4">
-        <v>17.78177642822266</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>17.78177833557129</v>
+      </c>
+      <c r="G4" t="n">
         <v>7300</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.03332198392794494</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.07877249451467459</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>29.20999908447266</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>29.42000007629395</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>29.17000007629395</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>29.3799991607666</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>18.79426574707031</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>11000</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.03341536564872527</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.05606386076298656</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>29.29999923706055</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>29.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>29.23999977111816</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>29.43000030517578</v>
       </c>
-      <c r="F6">
-        <v>18.82624816894531</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>18.82625389099121</v>
+      </c>
+      <c r="G6" t="n">
         <v>14800</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.001701876985617856</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.04736809962447825</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>28.65999984741211</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>28.79999923706055</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>28.65999984741211</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>28.73999977111816</v>
       </c>
-      <c r="F7">
-        <v>18.38486480712891</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>18.38485908508301</v>
+      </c>
+      <c r="G7" t="n">
         <v>32800</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.02344548171602523</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.04538456968935115</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>29.73999977111816</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>29.95999908447266</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>29.72999954223633</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>29.80999946594238</v>
       </c>
-      <c r="F8">
-        <v>19.06933403015137</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>19.06933212280273</v>
+      </c>
+      <c r="G8" t="n">
         <v>50800</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.03723033066616432</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.04195228135495872</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>32.04000091552734</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>32.43999862670898</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>32.04000091552734</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>32.36000061035156</v>
       </c>
-      <c r="F9">
-        <v>20.70055770874023</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>20.7005615234375</v>
+      </c>
+      <c r="G9" t="n">
         <v>17000</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.08554180443117843</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.04653279306331306</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>33.36999893188477</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>33.52999877929688</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>33.18000030517578</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>33.52999877929688</v>
       </c>
-      <c r="F10">
-        <v>21.44900321960449</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>21.44900512695312</v>
+      </c>
+      <c r="G10" t="n">
         <v>61700</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.0361556905710021</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.04324233535228366</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>32.34999847412109</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>32.59000015258789</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>32.34999847412109</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>32.58000183105469</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>21.10053825378418</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>33500</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>-0.02833274628177929</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.04444507240595989</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>33.75</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>34.2599983215332</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>33.63999938964844</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>34</v>
       </c>
-      <c r="F12">
-        <v>22.02020454406738</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>22.02020072937012</v>
+      </c>
+      <c r="G12" t="n">
         <v>34900</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.04358496283421931</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.04251922066143633</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>32.81999969482422</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>32.90999984741211</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>32.4900016784668</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>32.56999969482422</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>21.09405899047852</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>43900</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-0.04205883250517006</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.0448620430314282</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>29.22999954223633</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>29.6299991607666</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>28.85000038146973</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>28.97999954223633</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>18.76898765563965</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>84700</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.1102241383551007</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.05640443720850848</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.06231667202351021</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.06231667202351021</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>30.43000030517578</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>30.53000068664551</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>30.1299991607666</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>30.1299991607666</v>
       </c>
-      <c r="F15">
-        <v>19.51378631591797</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>19.5137882232666</v>
+      </c>
+      <c r="G15" t="n">
         <v>58800</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.03968252714615228</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.05478045881880024</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.02448144566780219</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0.02448144566780219</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>29.29000091552734</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>29.43000030517578</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>28.95999908447266</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>29.30999946594238</v>
       </c>
-      <c r="F16">
-        <v>18.98271179199219</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>18.98270797729492</v>
+      </c>
+      <c r="G16" t="n">
         <v>32200</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.02721539056303635</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.0535177033058903</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.03095318857968477</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.03095318857968477</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>27.45999908447266</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>27.78000068664551</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>27.3799991607666</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>27.55999946594238</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>18.81608581542969</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>29300</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.05970658587126432</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.05432911916135939</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.06194689403717224</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.06194689403717224</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>29.79000091552734</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>29.79000091552734</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>29.43000030517578</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>29.54000091552734</v>
       </c>
-      <c r="F18">
-        <v>20.16789245605469</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>20.16789627075195</v>
+      </c>
+      <c r="G18" t="n">
         <v>13300</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>0.07184330507813597</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.05530935447374872</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>0.003737703337101772</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>0.003737703337101772</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>30.54000091552734</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>30.54000091552734</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>29.93000030517578</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>29.98999977111816</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>20.47512245178223</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>9900</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.01523354237116092</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.05359557010566041</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>0.04349338935124725</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.04349338935124725</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>31.70000076293945</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>31.70000076293945</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>31.59000015258789</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>31.65999984741211</v>
       </c>
-      <c r="F20">
-        <v>21.61528968811035</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>21.61528396606445</v>
+      </c>
+      <c r="G20" t="n">
         <v>26300</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.05568523137843551</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.05324906027905724</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.06205972541473326</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.06205972541473326</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>31.92000007629395</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>31.92000007629395</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>31.71999931335449</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>31.71999931335449</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>21.65624809265137</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>23000</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.001895118958672004</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.05177942295595343</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>-0.01977754279746036</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.01977754279746036</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>28.8700008392334</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>28.8700008392334</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>28.48999977111816</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>28.77000045776367</v>
       </c>
-      <c r="F22">
-        <v>19.64219284057617</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>19.64218902587891</v>
+      </c>
+      <c r="G22" t="n">
         <v>19500</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>-0.09300122696877977</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.05534220779890522</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>-0.1419623768215663</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.1419623768215663</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>28.97999954223633</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>29.06999969482422</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>28.93000030517578</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>28.98999977111816</v>
       </c>
-      <c r="F23">
-        <v>20.21561813354492</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>20.21562194824219</v>
+      </c>
+      <c r="G23" t="n">
         <v>67000</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.007646830373793989</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.05394634870433488</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-0.1101903578321655</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-0.1101903578321655</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>30.28000068664551</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>30.45000076293945</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>30.25</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>30.34000015258789</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>21.15701866149902</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>12600</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.04656779552011892</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.05341178148975866</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-0.1076470543356502</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-0.1076470543356502</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>31.1299991607666</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>31.23999977111816</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>30.89999961853027</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>31.04000091552734</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>21.6451473236084</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>18300</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>0.02307187737043392</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.05230185698649314</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.04697570751098323</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-0.04697570751098323</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>33.68999862670898</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>33.47000122070312</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>33.59999847412109</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>23.43031120300293</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>82100</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.08247414571799006</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.05342437197039713</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.1594202555162723</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.1594202555162723</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>34.18999862670898</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>34.43999862670898</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>34.06000137329102</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>34.43999862670898</v>
       </c>
-      <c r="F27">
-        <v>24.01607131958008</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>24.01606941223145</v>
+      </c>
+      <c r="G27" t="n">
         <v>31200</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.02500000567663307</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.05238430417648446</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>0.1430467834713582</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.1430467834713582</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>34.83000183105469</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>35.02999877929688</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>34.70999908447266</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>34.84000015258789</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>24.29500198364258</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>52800</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.01161444662685596</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.05132623952907438</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.1886728347802002</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.1886728347802002</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>34.02000045776367</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>34.91999816894531</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>34.02000045776367</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>34.58000183105469</v>
       </c>
-      <c r="F29">
-        <v>24.78297424316406</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>24.78296852111816</v>
+      </c>
+      <c r="G29" t="n">
         <v>27200</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.007462638358050944</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.05045122204444556</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.2547170718848293</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.2547170718848293</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>36.61000061035156</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>36.88999938964844</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>36.61000061035156</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>36.70000076293945</v>
       </c>
-      <c r="F30">
-        <v>26.3023509979248</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>26.30234527587891</v>
+      </c>
+      <c r="G30" t="n">
         <v>222600</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.06130707980416861</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.05044645528997258</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.2423831965302528</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.2423831965302528</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>36.47000122070312</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>36.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>36.22999954223633</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>36.31000137329102</v>
       </c>
-      <c r="F31">
-        <v>26.02284240722656</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>26.02284049987793</v>
+      </c>
+      <c r="G31" t="n">
         <v>52200</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>-0.01062668614552909</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.0497136064503618</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.2107369673360024</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.2107369673360024</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>37.29999923706055</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>37.15000152587891</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>37.27000045776367</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>26.71085548400879</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>38000</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.02643897130719508</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.04892900941318321</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.1771952191215858</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.1771952191215858</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>39.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>39.65999984741211</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>39.38000106811523</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>39.61000061035156</v>
       </c>
-      <c r="F33">
-        <v>28.38790321350098</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>28.38789939880371</v>
+      </c>
+      <c r="G33" t="n">
         <v>79800</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.06278508515822812</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.04897626434693523</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.2487390122254918</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.2487390122254918</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>35.63000106811523</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>35.63000106811523</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>35.22000122070312</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>35.2599983215332</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>25.27032089233398</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>66200</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.1098208084268886</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.0528660995561001</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.2255821258431083</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.2255821258431083</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>33.54999923706055</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>33.68000030517578</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>33.20000076293945</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>33.54999923706055</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>24.55476379394531</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>204800</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.04849685666117465</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.05300156901293028</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.157295601998775</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.157295601998775</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>35.38000106811523</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>34.95999908447266</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>35.18000030517578</v>
       </c>
-      <c r="F36">
-        <v>25.74774169921875</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>25.74773406982422</v>
+      </c>
+      <c r="G36" t="n">
         <v>37600</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>0.04858423562390657</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.05266179835414685</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.1595253832645436</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.1595253832645436</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>34.09999847412109</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>34.20999908447266</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>33.83000183105469</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>33.84999847412109</v>
       </c>
-      <c r="F37">
-        <v>24.77433204650879</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>24.77433013916016</v>
+      </c>
+      <c r="G37" t="n">
         <v>46600</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-0.03780562306757607</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.05247822210792997</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.09052826919177326</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.09052826919177326</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>38.52999877929688</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>38.58000183105469</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>38.22999954223633</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>38.45999908447266</v>
       </c>
-      <c r="F38">
-        <v>28.14831924438477</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>28.14832496643066</v>
+      </c>
+      <c r="G38" t="n">
         <v>10900</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.1361890935940806</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.05599100932973014</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.1446428818767584</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.1446428818767584</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>39.7599983215332</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>39.90999984741211</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>39.52999877929688</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>39.52999877929688</v>
       </c>
-      <c r="F39">
-        <v>28.93144035339355</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>28.93144416809082</v>
+      </c>
+      <c r="G39" t="n">
         <v>52300</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>0.02782110557189821</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.05527613699387381</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.1477932739707046</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.1477932739707046</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>38.25</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>38.27999877929688</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>37.93000030517578</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>37.95999908447266</v>
       </c>
-      <c r="F40">
-        <v>27.78237915039062</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>27.78238487243652</v>
+      </c>
+      <c r="G40" t="n">
         <v>35800</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.03971666438923538</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.05515511054194238</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.0895522077560329</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.0895522077560329</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>37.40000152587891</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>37.34000015258789</v>
       </c>
-      <c r="F41">
-        <v>27.88499450683594</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>27.88499641418457</v>
+      </c>
+      <c r="G41" t="n">
         <v>10500</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>-0.01633295434241389</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.05459036648207398</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.07981486915522873</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.07981486915522873</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>37.54999923706055</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>37.79000091552734</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>37.54999923706055</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>37.68000030517578</v>
       </c>
-      <c r="F42">
-        <v>28.13889694213867</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>28.13890266418457</v>
+      </c>
+      <c r="G42" t="n">
         <v>21400</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>0.009105520921223853</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.05388598852664097</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>0.02670298424696371</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>0.02670298424696371</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>40.11999893188477</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>40.20000076293945</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>39.93000030517578</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>39.93000030517578</v>
       </c>
-      <c r="F43">
-        <v>29.81917381286621</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>29.81916999816895</v>
+      </c>
+      <c r="G43" t="n">
         <v>13700</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.05971337531255116</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.05378231958499285</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>0.09969701996617308</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>0.09969701996617308</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>42.84999847412109</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>43.04999923706055</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>42.7599983215332</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>42.95000076293945</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>32.07447052001953</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>140600</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>0.07563236751020552</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.0540575240397253</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>0.1524014015404336</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>0.1524014015404336</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>43.06000137329102</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>43.5</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>43.06000137329102</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>43.40999984741211</v>
       </c>
-      <c r="F45">
-        <v>32.41799545288086</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>32.41798782348633</v>
+      </c>
+      <c r="G45" t="n">
         <v>69400</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.01071010654951099</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.0534106527411993</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>0.09593534911654267</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>0.09593534911654267</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>42.29999923706055</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>42.31000137329102</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>42.22000122070312</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>42.31000137329102</v>
       </c>
-      <c r="F46">
-        <v>31.59652900695801</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>31.59652709960938</v>
+      </c>
+      <c r="G46" t="n">
         <v>32300</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>-0.02533974839870146</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.05308940570478895</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>0.1999433745705084</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>0.1999433745705084</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>41.84999847412109</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>42.13000106811523</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>41.61000061035156</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>42.13000106811523</v>
       </c>
-      <c r="F47">
-        <v>32.19053649902344</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>32.19053268432617</v>
+      </c>
+      <c r="G47" t="n">
         <v>135000</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>-0.004254320475853501</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.05253453580612438</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.2557377653104953</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.2557377653104953</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>40.65000152587891</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>40.75</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>40.58000183105469</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="F48">
-        <v>31.0214900970459</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>31.0214958190918</v>
+      </c>
+      <c r="G48" t="n">
         <v>38100</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>-0.03631622490396935</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.05241501235650226</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.1540647561662445</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.1540647561662445</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>40.91999816894531</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>40.91999816894531</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>40.77000045776367</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>40.83000183105469</v>
       </c>
-      <c r="F49">
-        <v>31.19723320007324</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>31.19723701477051</v>
+      </c>
+      <c r="G49" t="n">
         <v>7800</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.005665107526548363</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.05184605721881357</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.2062039489387253</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.2062039489387253</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>38.20000076293945</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>38.5099983215332</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>38.20000076293945</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>38.4900016784668</v>
       </c>
-      <c r="F50">
-        <v>29.40928840637207</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>29.40929222106934</v>
+      </c>
+      <c r="G50" t="n">
         <v>11900</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>-0.05731080204870631</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.05220179408520891</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.0007800986663635268</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.0007800986663635268</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>39.61999893188477</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>39.79000091552734</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>39.58000183105469</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>39.77999877929688</v>
       </c>
-      <c r="F51">
-        <v>30.39494895935059</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>30.39495086669922</v>
+      </c>
+      <c r="G51" t="n">
         <v>7100</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>0.03351512196872064</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.0517783035594945</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.006324310845436498</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.006324310845436498</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>40.18999862670898</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>40.18999862670898</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>40.0099983215332</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>40.0099983215332</v>
       </c>
-      <c r="F52">
-        <v>30.57068634033203</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>30.5706844329834</v>
+      </c>
+      <c r="G52" t="n">
         <v>18000</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.005781788569486634</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.05124930514280702</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.0540041961670934</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.0540041961670934</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>40.11999893188477</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>40.22999954223633</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>39.88000106811523</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>39.97999954223633</v>
       </c>
-      <c r="F53">
-        <v>31.40388870239258</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>31.40387916564941</v>
+      </c>
+      <c r="G53" t="n">
         <v>73500</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.0007497820683668444</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.05075250544994025</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.07070164378308053</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.07070164378308053</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>38.43999862670898</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>38.65000152587891</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>38.27999877929688</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>38.54999923706055</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>30.2806339263916</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>28300</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>-0.03576789198471797</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.05063088205094309</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.02308914344051272</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.02308914344051272</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>40.86999893188477</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>41.11999893188477</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>40.86999893188477</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>40.95000076293945</v>
       </c>
-      <c r="F55">
-        <v>32.16580963134766</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>32.16580581665039</v>
+      </c>
+      <c r="G55" t="n">
         <v>14100</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.0622568501524543</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.05069393556880233</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.02554471449957529</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.02554471449957529</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>40.22000122070312</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>40.29999923706055</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>40.02999877929688</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>40.06000137329102</v>
       </c>
-      <c r="F56">
-        <v>31.46672058105469</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>31.46671676635742</v>
+      </c>
+      <c r="G56" t="n">
         <v>25300</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.02173380642409917</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.05038678245860978</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>-0.0672875282494092</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>-0.0672875282494092</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>40.59000015258789</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>40.61000061035156</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>40.47999954223633</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>40.54999923706055</v>
       </c>
-      <c r="F57">
-        <v>31.85161209106445</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>31.85161399841309</v>
+      </c>
+      <c r="G57" t="n">
         <v>25400</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>0.01223159877613544</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.04992075004130101</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>-0.06588345128782724</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>-0.06588345128782724</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>38.15000152587891</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>38.41999816894531</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>37.90999984741211</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>38.11999893188477</v>
       </c>
-      <c r="F58">
-        <v>29.9428653717041</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>29.94286918640137</v>
+      </c>
+      <c r="G58" t="n">
         <v>67800</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.05992602591604712</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.05030183211031135</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>-0.09903101643601619</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>-0.09903101643601619</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>34.77000045776367</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>34.77000045776367</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>34.52999877929688</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>34.68000030517578</v>
       </c>
-      <c r="F59">
-        <v>27.94142913818359</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>27.94143104553223</v>
+      </c>
+      <c r="G59" t="n">
         <v>8800</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>-0.0902413096300394</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.05149551642327695</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>-0.1768336238799137</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>-0.1768336238799137</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>35.13999938964844</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>35.22000122070312</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>34.81999969482422</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>34.86000061035156</v>
       </c>
-      <c r="F60">
-        <v>28.08645248413086</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>28.08645057678223</v>
+      </c>
+      <c r="G60" t="n">
         <v>12500</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>0.005190320172774543</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.05104182156194237</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>-0.1413792630418022</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>-0.1413792630418022</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>32.47999954223633</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>32.47999954223633</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>31.96999931335449</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>32.22000122070312</v>
       </c>
-      <c r="F61">
-        <v>25.95942687988281</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>25.95942497253418</v>
+      </c>
+      <c r="G61" t="n">
         <v>38200</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.07573147858363771</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.05169374533658799</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.2108743625821472</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.2108743625821472</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>32.02999877929688</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>32.02999877929688</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>31.79000091552734</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>31.97999954223633</v>
       </c>
-      <c r="F62">
-        <v>25.76605796813965</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>25.76605415344238</v>
+      </c>
+      <c r="G62" t="n">
         <v>3300</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>-0.007448841383425608</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.05127563159108479</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.1691348883435483</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.1691348883435483</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>36.31999969482422</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>36.5</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>36.04999923706055</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>36.34000015258789</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>29.27887535095215</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>19700</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>0.1363352305428667</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.05359740893591555</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.08647558401885369</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.08647558401885369</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>35.72999954223633</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>35.93999862670898</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>35.72999954223633</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>35.77000045776367</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>28.81963539123535</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>43800</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.01568518691334198</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.05322835381647784</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.1059734576766423</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.1059734576766423</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>37.65000152587891</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>37.75</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>37.47999954223633</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>37.47999954223633</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>30.77887916564941</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>11300</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>0.04780539733265532</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.05306232088261918</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.06253126634878792</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.06253126634878792</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>35.06999969482422</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>35.06999969482422</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>34.79000091552734</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>35.06999969482422</v>
       </c>
-      <c r="F66">
-        <v>28.79976272583008</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>28.79976081848145</v>
+      </c>
+      <c r="G66" t="n">
         <v>60900</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.06430095722643414</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.05337695208415423</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.09027236345288392</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.09027236345288392</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>36.38999938964844</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>36.38999938964844</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>36.02000045776367</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>36.13000106811523</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>29.67024993896484</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>49000</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>0.03022530317978456</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.05304825058814259</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.117704508059165</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.117704508059165</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>41.20000076293945</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>41.40000152587891</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>41.09000015258789</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>41.13000106811523</v>
       </c>
-      <c r="F68">
-        <v>33.77628326416016</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>33.77628707885742</v>
+      </c>
+      <c r="G68" t="n">
         <v>17800</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.1383891461994033</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.05511383166024519</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>0.02670992656374738</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>0.02670992656374738</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>41.56000137329102</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>41.95999908447266</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>41.56000137329102</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>41.81999969482422</v>
       </c>
-      <c r="F69">
-        <v>34.34291839599609</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>34.34292221069336</v>
+      </c>
+      <c r="G69" t="n">
         <v>61500</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>0.0167760420323424</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.0547058898284658</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>0.03131937069441326</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>0.03131937069441326</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>41.83000183105469</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>42.16999816894531</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>41.27000045776367</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>41.97000122070312</v>
       </c>
-      <c r="F70">
-        <v>34.46610260009766</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>34.46610641479492</v>
+      </c>
+      <c r="G70" t="n">
         <v>64100</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>0.003586837086884787</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.05429857293259742</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>0.1009969149185388</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>0.1009969149185388</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>42.79999923706055</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>43.11999893188477</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>42.65999984741211</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>43.02999877929688</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>35.78598022460938</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>40400</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>0.02525607642991612</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.05393881330012403</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>0.2407727335825574</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>0.2407727335825574</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>45.97000122070312</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>46.75</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>45.75</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>46.52000045776367</v>
       </c>
-      <c r="F72">
-        <v>38.68843841552734</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>38.68844604492188</v>
+      </c>
+      <c r="G72" t="n">
         <v>111300</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.08110624628104679</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.05425384188225549</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>0.3344807700304431</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>0.3344807700304431</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>46.72000122070312</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>46.90999984741211</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>46.65999984741211</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>46.81999969482422</v>
       </c>
-      <c r="F73">
-        <v>38.93794250488281</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>38.93794631958008</v>
+      </c>
+      <c r="G73" t="n">
         <v>36300</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>0.006448822745238836</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.05386583399299478</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>0.4531346344189395</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>0.4531346344189395</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>46.84999847412109</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>47.06999969482422</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>46.68000030517578</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>46.84999847412109</v>
       </c>
-      <c r="F74">
-        <v>38.96288299560547</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>38.962890625</v>
+      </c>
+      <c r="G74" t="n">
         <v>185000</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>0.0006407257473817207</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.05349434377068333</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>0.4649780845758236</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>0.4649780845758236</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>42.45000076293945</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>42.95999908447266</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>41.97000122070312</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>42.88999938964844</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>35.66954803466797</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>38100</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>-0.08452506325395237</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.05423617218763577</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>0.180242135651012</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>0.180242135651012</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>42.47999954223633</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>42.54000091552734</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>42.18999862670898</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>42.2400016784668</v>
       </c>
-      <c r="F76">
-        <v>35.12897491455078</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>35.12897872924805</v>
+      </c>
+      <c r="G76" t="n">
         <v>41600</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>-0.01515499464750558</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.05392865442131271</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>0.180877862395969</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>0.180877862395969</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>40.02000045776367</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>40.13999938964844</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>39.65000152587891</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>39.72999954223633</v>
       </c>
-      <c r="F77">
-        <v>34.18407821655273</v>
-      </c>
-      <c r="G77">
+      <c r="F77" t="n">
+        <v>34.18408203125</v>
+      </c>
+      <c r="G77" t="n">
         <v>81600</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>-0.05942239669725258</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.05411510867039534</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>0.06003201780897749</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>0.06003201780897749</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>43.40000152587891</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>43.59999847412109</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>43.29000091552734</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>43.47000122070312</v>
       </c>
-      <c r="F78">
-        <v>37.40201568603516</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>37.40201187133789</v>
+      </c>
+      <c r="G78" t="n">
         <v>35200</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.09413545737625451</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.05468587864270207</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.2395210036776423</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.2395210036776423</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>43.09000015258789</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>43.38999938964844</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>43.0099983215332</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>43.13999938964844</v>
       </c>
-      <c r="F79">
-        <v>37.11807632446289</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>37.11808013916016</v>
+      </c>
+      <c r="G79" t="n">
         <v>80400</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>-0.007591484283131833</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.05435253709541572</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.1940215365152462</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.1940215365152462</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>42.13000106811523</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>42.2599983215332</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>42.02999877929688</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>42.22000122070312</v>
       </c>
-      <c r="F80">
-        <v>36.32650375366211</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>36.32649993896484</v>
+      </c>
+      <c r="G80" t="n">
         <v>49800</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>-0.02132587348079729</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.05409641967936226</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>0.02650134024511086</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>0.02650134024511086</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>42.2599983215332</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>42.59999847412109</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>42.2599983215332</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>42.58000183105469</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>36.63624954223633</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>32500</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.008526778776478006</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.05374878699556225</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.01817317412186714</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.01817317412186714</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>44.29999923706055</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>44.36999893188477</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>44.13999938964844</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>44.15000152587891</v>
       </c>
-      <c r="F82">
-        <v>37.98709487915039</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>37.98709106445312</v>
+      </c>
+      <c r="G82" t="n">
         <v>60200</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.03687176203170517</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.05351138544012098</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.05194186899619213</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.05194186899619213</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>46.02000045776367</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>46.38000106811523</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>46.02000045776367</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>46.2599983215332</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>40.54245758056641</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>74300</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>0.04779154524870188</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.05336458159365603</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.07506390039198396</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.07506390039198396</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>47.36000061035156</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>47.65000152587891</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>47.34999847412109</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>47.63999938964844</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>41.75189590454102</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>140500</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.02983141197981554</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.05308923639755302</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.02407564318279909</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.02407564318279909</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>46.22999954223633</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>46.61000061035156</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>46.22999954223633</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>46.59000015258789</v>
       </c>
-      <c r="F85">
-        <v>40.83166885375977</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>40.83167266845703</v>
+      </c>
+      <c r="G85" t="n">
         <v>16200</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>-0.02204028653469503</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.05286885438288391</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>-0.004912420840142651</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>-0.004912420840142651</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>47.2400016784668</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>48</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>47.02000045776367</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>47.11999893188477</v>
       </c>
-      <c r="F86">
-        <v>41.29616546630859</v>
-      </c>
-      <c r="G86">
+      <c r="F86" t="n">
+        <v>41.29616928100586</v>
+      </c>
+      <c r="G86" t="n">
         <v>7200</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>0.01137580548532013</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.05255081902584417</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>0.005763083597810859</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>0.005763083597810859</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>45.63000106811523</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>45.65999984741211</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>45.54000091552734</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>45.56999969482422</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>39.937744140625</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>41700</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>-0.03289472139634764</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.05242397733067323</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.06248543584317701</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.06248543584317701</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>45.65000152587891</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>45.93000030517578</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>45.52000045776367</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>45.52000045776367</v>
       </c>
-      <c r="F88">
-        <v>39.89392852783203</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>39.8939208984375</v>
+      </c>
+      <c r="G88" t="n">
         <v>22100</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.001097196343984752</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.05212274573140499</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>0.07765148316670079</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>0.07765148316670079</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>47.88000106811523</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>47.93999862670898</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>47.47000122070312</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>47.47000122070312</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>42.40108108520508</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>10000</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>0.04283832915926244</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.05195868474198777</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>0.1948150457499633</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>0.1948150457499633</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>50.02999877929688</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>50.02999877929688</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>48.88000106811523</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>49.61999893188477</v>
       </c>
-      <c r="F90">
-        <v>44.32149887084961</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>44.32149505615234</v>
+      </c>
+      <c r="G90" t="n">
         <v>37800</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>0.04529171383808528</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.05181431001311418</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>0.1414768239816067</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>0.1414768239816067</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>48.79999923706055</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>49.04000091552734</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>48.22000122070312</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>48.22000122070312</v>
       </c>
-      <c r="F91">
-        <v>43.07099533081055</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>43.07099151611328</v>
+      </c>
+      <c r="G91" t="n">
         <v>158200</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.02821438414586563</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.0516629741800724</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>0.1177561869014223</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>0.1177561869014223</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>48.27999877929688</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>48.79999923706055</v>
       </c>
-      <c r="F92">
-        <v>43.58905792236328</v>
-      </c>
-      <c r="G92">
+      <c r="F92" t="n">
+        <v>43.58906173706055</v>
+      </c>
+      <c r="G92" t="n">
         <v>4200</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>0.01202816262286621</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.05137391096901658</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>0.1558502564213768</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>0.1558502564213768</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>47.93000030517578</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>48.08000183105469</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>47.54000091552734</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>47.54000091552734</v>
       </c>
-      <c r="F93">
-        <v>42.46360778808594</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>42.46360397338867</v>
+      </c>
+      <c r="G93" t="n">
         <v>8100</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>-0.02581963814000043</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.05120895837522916</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>0.1164865869229532</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>0.1164865869229532</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>48.9900016784668</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>49</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>48.63000106811523</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>48.79999923706055</v>
       </c>
-      <c r="F94">
-        <v>43.58905792236328</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>43.58906173706055</v>
+      </c>
+      <c r="G94" t="n">
         <v>46200</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>0.02650396081758744</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.05096571244812666</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>0.105322707824959</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>0.105322707824959</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>48.38999938964844</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>48.5099983215332</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>48.2599983215332</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>48.34999847412109</v>
       </c>
-      <c r="F95">
-        <v>43.90357971191406</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>43.90358352661133</v>
+      </c>
+      <c r="G95" t="n">
         <v>33000</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.009221327253581268</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.05071802817976537</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>0.04517942560354649</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>0.04517942560354649</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>48.40000152587891</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>48.40000152587891</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>48.13000106811523</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>48.27000045776367</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>43.8309440612793</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>78700</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>-0.001654560886909628</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.05045332436033602</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>0.01322420395018153</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>0.01322420395018153</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>49.04000091552734</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>49.20000076293945</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>48.72000122070312</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>49.04999923706055</v>
       </c>
-      <c r="F97">
-        <v>44.53920745849609</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>44.53920364379883</v>
+      </c>
+      <c r="G97" t="n">
         <v>46500</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.01615907959187557</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.05019239784135206</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>0.05280101044034913</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>0.05280101044034913</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>48.56999969482422</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>48.93000030517578</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>48.56999969482422</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>48.59999847412109</v>
       </c>
-      <c r="F98">
-        <v>44.13058853149414</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>44.13059234619141</v>
+      </c>
+      <c r="G98" t="n">
         <v>37600</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>-0.009174327623627132</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.04995628423120786</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>0.03140915907862762</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>0.03140915907862762</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>45.33000183105469</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>45.5099983215332</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>45.2400016784668</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>45.31999969482422</v>
       </c>
-      <c r="F99">
-        <v>41.15222930908203</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>41.1522331237793</v>
+      </c>
+      <c r="G99" t="n">
         <v>16700</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>-0.06748968893576068</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.05027160531591589</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.005486065430638898</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.005486065430638898</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>48</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>48.34000015258789</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>47.93000030517578</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>48.29000091552734</v>
       </c>
-      <c r="F100">
-        <v>43.84909820556641</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>43.84910583496094</v>
+      </c>
+      <c r="G100" t="n">
         <v>39400</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.0655340079590141</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.05036622805688915</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>0.06085238202784837</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>0.06085238202784837</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>46.18000030517578</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>46.31000137329102</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>45.88999938964844</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>46.02000045776367</v>
       </c>
-      <c r="F101">
-        <v>42.54976654052734</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>42.54976272583008</v>
+      </c>
+      <c r="G101" t="n">
         <v>19800</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.04700767063008626</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.05040270547077166</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.03054562303881014</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.03054562303881014</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>48.61000061035156</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>48.90000152587891</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>48.43999862670898</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>48.59999847412109</v>
       </c>
-      <c r="F102">
-        <v>44.93520736694336</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>44.93521499633789</v>
+      </c>
+      <c r="G102" t="n">
         <v>102200</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>0.05606253782472903</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.05039139994726505</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.0205562369955683</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.0205562369955683</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>49.52000045776367</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>49.54000091552734</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>49.33000183105469</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>49.43999862670898</v>
       </c>
-      <c r="F103">
-        <v>45.71187210083008</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>45.71186828613281</v>
+      </c>
+      <c r="G103" t="n">
         <v>18800</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>0.01728395429961127</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.05014917277179787</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>0.02530065066614018</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>0.02530065066614018</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>52.15999984741211</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>52.36999893188477</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>52.04000091552734</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>52.29000091552734</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>48.34696197509766</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>68700</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>0.05764567896405048</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.05015024566004706</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>0.07151642895552257</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>0.07151642895552257</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>52.06999969482422</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>52.33000183105469</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>51.91999816894531</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>52.33000183105469</v>
       </c>
-      <c r="F105">
-        <v>48.38394546508789</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>48.38394927978516</v>
+      </c>
+      <c r="G105" t="n">
         <v>39500</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>0.0007649821156432424</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.04990839678691365</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>0.1007572743643521</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>0.1007572743643521</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>50.77000045776367</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>51.15999984741211</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>50.77000045776367</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>51.09999847412109</v>
       </c>
-      <c r="F106">
-        <v>47.2466926574707</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>47.24669647216797</v>
+      </c>
+      <c r="G106" t="n">
         <v>33200</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>-0.02350474515373824</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.04975891071608097</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>0.04713113264382685</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>0.04713113264382685</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>53.38999938964844</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>53.52000045776367</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>53.22999954223633</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>53.38000106811523</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>50.09886169433594</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>26100</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.0446184473987572</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.04965306635046186</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>0.1040331489707575</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>0.1040331489707575</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>54.86999893188477</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>54.93000030517578</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>54.04000091552734</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>54.36999893188477</v>
       </c>
-      <c r="F108">
-        <v>51.02800369262695</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>51.02799987792969</v>
+      </c>
+      <c r="G108" t="n">
         <v>28500</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>0.01854623162158142</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.04942744044360556</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>0.1263724552780687</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>0.1263724552780687</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>51.63999938964844</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>51.84000015258789</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>51.29999923706055</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>51.56999969482422</v>
       </c>
-      <c r="F109">
-        <v>48.40011215209961</v>
-      </c>
-      <c r="G109">
+      <c r="F109" t="n">
+        <v>48.40011596679688</v>
+      </c>
+      <c r="G109" t="n">
         <v>39800</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>-0.05149897539207993</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.04952583209607779</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>0.05137615692070474</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>0.05137615692070474</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>51.93999862670898</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>52.06000137329102</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>51.86000061035156</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>51.86999893188477</v>
       </c>
-      <c r="F110">
-        <v>48.68167877197266</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>48.68167114257812</v>
+      </c>
+      <c r="G110" t="n">
         <v>7700</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>0.005817320900443068</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.04929403281605062</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>0.06728396214878285</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>0.06728396214878285</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>52.38000106811523</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>52.68000030517578</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>52.34999847412109</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>52.47999954223633</v>
       </c>
-      <c r="F111">
-        <v>49.25418090820312</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>49.25417327880859</v>
+      </c>
+      <c r="G111" t="n">
         <v>21400</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.01176018166402137</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.049067265311597</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>0.157987641121494</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>0.157987641121494</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>55.93000030517578</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>55.9900016784668</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>55.75</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>55.88000106811523</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>52.4451904296875</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>30100</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>0.06478661500639982</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.04914927417798947</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.1571753988132019</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.1571753988132019</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>59.09000015258789</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>59.09000015258789</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>57.52000045776367</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>57.75</v>
       </c>
-      <c r="F113">
-        <v>55.35190200805664</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>55.35189819335938</v>
+      </c>
+      <c r="G113" t="n">
         <v>11000</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>0.03346454717503167</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.04898630389987009</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.2548891661355353</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.2548891661355353</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>56.45000076293945</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>56.56000137329102</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>56.11000061035156</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>56.15999984741211</v>
       </c>
-      <c r="F114">
-        <v>53.82793045043945</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>53.82792663574219</v>
+      </c>
+      <c r="G114" t="n">
         <v>44100</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>-0.02753247017468208</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.04888033161502734</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>0.1555555886965021</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>0.1555555886965021</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>52.68000030517578</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>52.86999893188477</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>52.0099983215332</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>52.86999893188477</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>50.67454528808594</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="n">
         <v>117900</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>-0.05858263754391635</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.04905880749548321</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.06937703075345136</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.06937703075345136</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>45.2599983215332</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>45.2599983215332</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>44.27999877929688</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>44.56999969482422</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>42.71920776367188</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>28100</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.1569888292934123</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.05120087170294943</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>-0.1476381924944793</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>-0.1476381924944793</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>50.38999938964844</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>50.38999938964844</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>48.38999938964844</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>48.65999984741211</v>
       </c>
-      <c r="F117">
-        <v>46.63936996459961</v>
-      </c>
-      <c r="G117">
+      <c r="F117" t="n">
+        <v>46.63936614990234</v>
+      </c>
+      <c r="G117" t="n">
         <v>17900</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.0917657657750186</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.05160491972328933</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>-0.07013189098465988</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>-0.07013189098465988</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>50.97000122070312</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>51.36999893188477</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>50.59999847412109</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>51.36999893188477</v>
       </c>
-      <c r="F118">
-        <v>49.23683547973633</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>49.23683166503906</v>
+      </c>
+      <c r="G118" t="n">
         <v>46900</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>0.05569254198460061</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.05158376499799955</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>0.005283766454521777</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>0.005283766454521777</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>55.70000076293945</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>57.18999862670898</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>55.70000076293945</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>56.66999816894531</v>
       </c>
-      <c r="F119">
-        <v>54.69451141357422</v>
-      </c>
-      <c r="G119">
+      <c r="F119" t="n">
+        <v>54.69451522827148</v>
+      </c>
+      <c r="G119" t="n">
         <v>83900</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>0.1031730454985642</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.05212812579298003</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>0.06163351508052428</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>0.06163351508052428</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>59.04999923706055</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>59.06000137329102</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>58.11999893188477</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>58.7400016784668</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>56.69235992431641</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>11500</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>0.0365273262114878</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.05197306941388664</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>0.08037525901107356</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>0.08037525901107356</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>60.45999908447266</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>60.90999984741211</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>60.45999908447266</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>60.61000061035156</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>58.49716949462891</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>19700</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>0.03183518689905451</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.05179901865633143</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>0.1752957333531773</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>0.1752957333531773</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>57.56000137329102</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>58.27999877929688</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>57.38999938964844</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>57.54000091552734</v>
       </c>
-      <c r="F122">
-        <v>55.53418731689453</v>
-      </c>
-      <c r="G122">
+      <c r="F122" t="n">
+        <v>55.5341911315918</v>
+      </c>
+      <c r="G122" t="n">
         <v>11300</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>-0.05065170209386027</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.05185864376955304</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>0.1093117813842328</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>0.1093117813842328</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>59.79999923706055</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>59.84000015258789</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>58.90999984741211</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>59.36999893188477</v>
       </c>
-      <c r="F123">
-        <v>57.30039215087891</v>
-      </c>
-      <c r="G123">
+      <c r="F123" t="n">
+        <v>57.30039596557617</v>
+      </c>
+      <c r="G123" t="n">
         <v>33800</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>0.03180392748071004</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.0515007668512223</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>0.1312880992711005</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>0.1312880992711005</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>66.61000061035156</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>66.72000122070312</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>66.20999908447266</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>66.43000030517578</v>
       </c>
-      <c r="F124">
-        <v>64.11429595947266</v>
-      </c>
-      <c r="G124">
+      <c r="F124" t="n">
+        <v>64.11428833007812</v>
+      </c>
+      <c r="G124" t="n">
         <v>26200</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>0.1189153023464082</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.05236235021515505</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>0.1887974057874582</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>0.1887974057874582</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>68.37000274658203</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>68.37000274658203</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>67.83999633789062</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>68.06999969482422</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>66.44497680664062</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>8200</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.02468763182469313</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.05233344415880843</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>0.1787012934168697</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>0.1787012934168697</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>68.15000152587891</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>68.51999664306641</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>67.43000030517578</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>67.69999694824219</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>66.08380889892578</v>
       </c>
-      <c r="G126">
+      <c r="G126" t="n">
         <v>23800</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.005435621393284129</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.05234515664343398</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>0.2054842794192395</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>0.2054842794192395</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>63.20000076293945</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>63.40999984741211</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>62.34999847412109</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>62.52999877929688</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>61.03723526000977</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>156500</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>-0.0763662984046789</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.05283569316292765</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>0.1827123140262894</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>0.1827123140262894</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>62.29000091552734</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>62.70000076293945</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>62.22000122070312</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>62.2599983215332</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>60.77367782592773</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>9100</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>-0.004317934799849432</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.0527778648417024</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>0.3969037188206055</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>0.3969037188206055</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>65.01999664306641</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>65.51000213623047</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>64.54000091552734</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>64.56999969482422</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>63.02853393554688</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>12400</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>0.03710249655583553</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.05235982919264182</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>0.326962595505603</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>0.326962595505603</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>61.40999984741211</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>61.75</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>61.09999847412109</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>61.63000106811523</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>60.15872192382812</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>23900</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.0455319597429803</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.05251013088580041</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>0.1997275131314478</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>0.1997275131314478</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>60.61999893188477</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>60.95999908447266</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>60.25</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>60.72000122070312</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>59.80564880371094</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>14500</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>-0.01476553353303289</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.05244917574328374</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>0.07146644049085538</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>0.07146644049085538</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>60.90999984741211</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>60.91999816894531</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>60.40000152587891</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>60.43999862670898</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>59.52986145019531</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>8000</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.004611373326169677</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.05234774865684107</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>0.02894104357619343</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>0.02894104357619343</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>63.33000183105469</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>63.47000122070312</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>63.02999877929688</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>63.45000076293945</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>62.49453735351562</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>12400</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>0.0498014924656256</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.05230828396721986</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>0.04685695634365072</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>0.04685695634365072</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>61.95000076293945</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>62.33000183105469</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>61.29000091552734</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>61.75</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>60.82013702392578</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>16100</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>-0.02679276189910473</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.05128245002631734</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>0.07316647579921365</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>0.07316647579921365</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>63.75</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>63.95000076293945</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>63.66999816894531</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>63.84000015258789</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>62.87866592407227</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>10800</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>0.03384615631721277</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.05125455070656441</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>0.0752905726987052</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>0.0752905726987052</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>58.81000137329102</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>59.11999893188477</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>58.20000076293945</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>58.65000152587891</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>57.76681900024414</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>23700</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>-0.0812969707754394</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.05179792924975758</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>-0.1171157420375731</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>-0.1171157420375731</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>58.84999847412109</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>59.06000137329102</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>58.81999969482422</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>58.88000106811523</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>58.88000106811523</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>5700</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>0.003921560720417716</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.05143242784857418</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>-0.1350080603483205</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>-0.1350080603483205</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B138">
-        <v>58.52000045776367</v>
-      </c>
-      <c r="C138">
-        <v>59.36999893188477</v>
-      </c>
-      <c r="D138">
-        <v>58.38000106811523</v>
-      </c>
-      <c r="E138">
-        <v>58.40000152587891</v>
-      </c>
-      <c r="F138">
-        <v>58.40000152587891</v>
-      </c>
-      <c r="G138">
-        <v>126924</v>
-      </c>
-      <c r="H138">
-        <v>-0.008152165990639837</v>
-      </c>
-      <c r="I138">
-        <v>0.05111089784689968</v>
-      </c>
-      <c r="J138">
-        <v>-0.1373706918993407</v>
-      </c>
-      <c r="K138">
-        <v>-0.1373706918993407</v>
+      <c r="B138" t="n">
+        <v>59.20999908447266</v>
+      </c>
+      <c r="C138" t="n">
+        <v>59.56999969482422</v>
+      </c>
+      <c r="D138" t="n">
+        <v>59.20999908447266</v>
+      </c>
+      <c r="E138" t="n">
+        <v>59.37269973754883</v>
+      </c>
+      <c r="F138" t="n">
+        <v>59.37269973754883</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4158</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.00836784409809388</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.0510920176634078</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.1230029185534487</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.1230029185534487</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/etf_dfs/ENZL.xlsx
+++ b/etf_dfs/ENZL.xlsx
@@ -508,7 +508,7 @@
         <v>27.28000068664551</v>
       </c>
       <c r="F2" t="n">
-        <v>17.0625</v>
+        <v>17.06249809265137</v>
       </c>
       <c r="G2" t="n">
         <v>26000</v>
@@ -535,7 +535,7 @@
         <v>29.40999984741211</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39472770690918</v>
+        <v>18.39472961425781</v>
       </c>
       <c r="G3" t="n">
         <v>16600</v>
@@ -564,7 +564,7 @@
         <v>28.43000030517578</v>
       </c>
       <c r="F4" t="n">
-        <v>17.78177833557129</v>
+        <v>17.78178024291992</v>
       </c>
       <c r="G4" t="n">
         <v>7300</v>
@@ -595,7 +595,7 @@
         <v>29.3799991607666</v>
       </c>
       <c r="F5" t="n">
-        <v>18.79426574707031</v>
+        <v>18.79426383972168</v>
       </c>
       <c r="G5" t="n">
         <v>11000</v>
@@ -657,7 +657,7 @@
         <v>28.73999977111816</v>
       </c>
       <c r="F7" t="n">
-        <v>18.38485908508301</v>
+        <v>18.38486099243164</v>
       </c>
       <c r="G7" t="n">
         <v>32800</v>
@@ -719,7 +719,7 @@
         <v>32.36000061035156</v>
       </c>
       <c r="F9" t="n">
-        <v>20.7005615234375</v>
+        <v>20.70055961608887</v>
       </c>
       <c r="G9" t="n">
         <v>17000</v>
@@ -781,7 +781,7 @@
         <v>32.58000183105469</v>
       </c>
       <c r="F11" t="n">
-        <v>21.10053825378418</v>
+        <v>21.10053253173828</v>
       </c>
       <c r="G11" t="n">
         <v>33500</v>
@@ -909,7 +909,7 @@
         <v>30.1299991607666</v>
       </c>
       <c r="F15" t="n">
-        <v>19.5137882232666</v>
+        <v>19.51378631591797</v>
       </c>
       <c r="G15" t="n">
         <v>58800</v>
@@ -979,7 +979,7 @@
         <v>27.55999946594238</v>
       </c>
       <c r="F17" t="n">
-        <v>18.81608581542969</v>
+        <v>18.81608200073242</v>
       </c>
       <c r="G17" t="n">
         <v>29300</v>
@@ -1014,7 +1014,7 @@
         <v>29.54000091552734</v>
       </c>
       <c r="F18" t="n">
-        <v>20.16789627075195</v>
+        <v>20.16789436340332</v>
       </c>
       <c r="G18" t="n">
         <v>13300</v>
@@ -1049,7 +1049,7 @@
         <v>29.98999977111816</v>
       </c>
       <c r="F19" t="n">
-        <v>20.47512245178223</v>
+        <v>20.47512435913086</v>
       </c>
       <c r="G19" t="n">
         <v>9900</v>
@@ -1084,7 +1084,7 @@
         <v>31.65999984741211</v>
       </c>
       <c r="F20" t="n">
-        <v>21.61528396606445</v>
+        <v>21.61528587341309</v>
       </c>
       <c r="G20" t="n">
         <v>26300</v>
@@ -1119,7 +1119,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F21" t="n">
-        <v>21.65624809265137</v>
+        <v>21.65625</v>
       </c>
       <c r="G21" t="n">
         <v>23000</v>
@@ -1189,7 +1189,7 @@
         <v>28.98999977111816</v>
       </c>
       <c r="F23" t="n">
-        <v>20.21562194824219</v>
+        <v>20.21562004089355</v>
       </c>
       <c r="G23" t="n">
         <v>67000</v>
@@ -1224,7 +1224,7 @@
         <v>30.34000015258789</v>
       </c>
       <c r="F24" t="n">
-        <v>21.15701866149902</v>
+        <v>21.15701675415039</v>
       </c>
       <c r="G24" t="n">
         <v>12600</v>
@@ -1294,7 +1294,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F26" t="n">
-        <v>23.43031120300293</v>
+        <v>23.4303150177002</v>
       </c>
       <c r="G26" t="n">
         <v>82100</v>
@@ -1329,7 +1329,7 @@
         <v>34.43999862670898</v>
       </c>
       <c r="F27" t="n">
-        <v>24.01606941223145</v>
+        <v>24.01607131958008</v>
       </c>
       <c r="G27" t="n">
         <v>31200</v>
@@ -1364,7 +1364,7 @@
         <v>34.84000015258789</v>
       </c>
       <c r="F28" t="n">
-        <v>24.29500198364258</v>
+        <v>24.29500389099121</v>
       </c>
       <c r="G28" t="n">
         <v>52800</v>
@@ -1399,7 +1399,7 @@
         <v>34.58000183105469</v>
       </c>
       <c r="F29" t="n">
-        <v>24.78296852111816</v>
+        <v>24.78297424316406</v>
       </c>
       <c r="G29" t="n">
         <v>27200</v>
@@ -1434,7 +1434,7 @@
         <v>36.70000076293945</v>
       </c>
       <c r="F30" t="n">
-        <v>26.30234527587891</v>
+        <v>26.30234909057617</v>
       </c>
       <c r="G30" t="n">
         <v>222600</v>
@@ -1469,7 +1469,7 @@
         <v>36.31000137329102</v>
       </c>
       <c r="F31" t="n">
-        <v>26.02284049987793</v>
+        <v>26.0228443145752</v>
       </c>
       <c r="G31" t="n">
         <v>52200</v>
@@ -1539,7 +1539,7 @@
         <v>39.61000061035156</v>
       </c>
       <c r="F33" t="n">
-        <v>28.38789939880371</v>
+        <v>28.38790702819824</v>
       </c>
       <c r="G33" t="n">
         <v>79800</v>
@@ -1574,7 +1574,7 @@
         <v>35.2599983215332</v>
       </c>
       <c r="F34" t="n">
-        <v>25.27032089233398</v>
+        <v>25.27031707763672</v>
       </c>
       <c r="G34" t="n">
         <v>66200</v>
@@ -1609,7 +1609,7 @@
         <v>33.54999923706055</v>
       </c>
       <c r="F35" t="n">
-        <v>24.55476379394531</v>
+        <v>24.55476570129395</v>
       </c>
       <c r="G35" t="n">
         <v>204800</v>
@@ -1644,7 +1644,7 @@
         <v>35.18000030517578</v>
       </c>
       <c r="F36" t="n">
-        <v>25.74773406982422</v>
+        <v>25.74773979187012</v>
       </c>
       <c r="G36" t="n">
         <v>37600</v>
@@ -1714,7 +1714,7 @@
         <v>38.45999908447266</v>
       </c>
       <c r="F38" t="n">
-        <v>28.14832496643066</v>
+        <v>28.14832305908203</v>
       </c>
       <c r="G38" t="n">
         <v>10900</v>
@@ -1784,7 +1784,7 @@
         <v>37.95999908447266</v>
       </c>
       <c r="F40" t="n">
-        <v>27.78238487243652</v>
+        <v>27.78238105773926</v>
       </c>
       <c r="G40" t="n">
         <v>35800</v>
@@ -1819,7 +1819,7 @@
         <v>37.34000015258789</v>
       </c>
       <c r="F41" t="n">
-        <v>27.88499641418457</v>
+        <v>27.8849925994873</v>
       </c>
       <c r="G41" t="n">
         <v>10500</v>
@@ -1854,7 +1854,7 @@
         <v>37.68000030517578</v>
       </c>
       <c r="F42" t="n">
-        <v>28.13890266418457</v>
+        <v>28.13890647888184</v>
       </c>
       <c r="G42" t="n">
         <v>21400</v>
@@ -1889,7 +1889,7 @@
         <v>39.93000030517578</v>
       </c>
       <c r="F43" t="n">
-        <v>29.81916999816895</v>
+        <v>29.81917572021484</v>
       </c>
       <c r="G43" t="n">
         <v>13700</v>
@@ -1994,7 +1994,7 @@
         <v>42.31000137329102</v>
       </c>
       <c r="F46" t="n">
-        <v>31.59652709960938</v>
+        <v>31.59652900695801</v>
       </c>
       <c r="G46" t="n">
         <v>32300</v>
@@ -2029,7 +2029,7 @@
         <v>42.13000106811523</v>
       </c>
       <c r="F47" t="n">
-        <v>32.19053268432617</v>
+        <v>32.19053649902344</v>
       </c>
       <c r="G47" t="n">
         <v>135000</v>
@@ -2064,7 +2064,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F48" t="n">
-        <v>31.0214958190918</v>
+        <v>31.02149200439453</v>
       </c>
       <c r="G48" t="n">
         <v>38100</v>
@@ -2099,7 +2099,7 @@
         <v>40.83000183105469</v>
       </c>
       <c r="F49" t="n">
-        <v>31.19723701477051</v>
+        <v>31.19722747802734</v>
       </c>
       <c r="G49" t="n">
         <v>7800</v>
@@ -2134,7 +2134,7 @@
         <v>38.4900016784668</v>
       </c>
       <c r="F50" t="n">
-        <v>29.40929222106934</v>
+        <v>29.40929412841797</v>
       </c>
       <c r="G50" t="n">
         <v>11900</v>
@@ -2204,7 +2204,7 @@
         <v>40.0099983215332</v>
       </c>
       <c r="F52" t="n">
-        <v>30.5706844329834</v>
+        <v>30.57068824768066</v>
       </c>
       <c r="G52" t="n">
         <v>18000</v>
@@ -2239,7 +2239,7 @@
         <v>39.97999954223633</v>
       </c>
       <c r="F53" t="n">
-        <v>31.40387916564941</v>
+        <v>31.40387725830078</v>
       </c>
       <c r="G53" t="n">
         <v>73500</v>
@@ -2274,7 +2274,7 @@
         <v>38.54999923706055</v>
       </c>
       <c r="F54" t="n">
-        <v>30.2806339263916</v>
+        <v>30.28062629699707</v>
       </c>
       <c r="G54" t="n">
         <v>28300</v>
@@ -2309,7 +2309,7 @@
         <v>40.95000076293945</v>
       </c>
       <c r="F55" t="n">
-        <v>32.16580581665039</v>
+        <v>32.16580200195312</v>
       </c>
       <c r="G55" t="n">
         <v>14100</v>
@@ -2344,7 +2344,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F56" t="n">
-        <v>31.46671676635742</v>
+        <v>31.46671867370605</v>
       </c>
       <c r="G56" t="n">
         <v>25300</v>
@@ -2379,7 +2379,7 @@
         <v>40.54999923706055</v>
       </c>
       <c r="F57" t="n">
-        <v>31.85161399841309</v>
+        <v>31.85160636901855</v>
       </c>
       <c r="G57" t="n">
         <v>25400</v>
@@ -2414,7 +2414,7 @@
         <v>38.11999893188477</v>
       </c>
       <c r="F58" t="n">
-        <v>29.94286918640137</v>
+        <v>29.94286727905273</v>
       </c>
       <c r="G58" t="n">
         <v>67800</v>
@@ -2449,7 +2449,7 @@
         <v>34.68000030517578</v>
       </c>
       <c r="F59" t="n">
-        <v>27.94143104553223</v>
+        <v>27.94142913818359</v>
       </c>
       <c r="G59" t="n">
         <v>8800</v>
@@ -2484,7 +2484,7 @@
         <v>34.86000061035156</v>
       </c>
       <c r="F60" t="n">
-        <v>28.08645057678223</v>
+        <v>28.08645439147949</v>
       </c>
       <c r="G60" t="n">
         <v>12500</v>
@@ -2519,7 +2519,7 @@
         <v>32.22000122070312</v>
       </c>
       <c r="F61" t="n">
-        <v>25.95942497253418</v>
+        <v>25.95942687988281</v>
       </c>
       <c r="G61" t="n">
         <v>38200</v>
@@ -2554,7 +2554,7 @@
         <v>31.97999954223633</v>
       </c>
       <c r="F62" t="n">
-        <v>25.76605415344238</v>
+        <v>25.76605987548828</v>
       </c>
       <c r="G62" t="n">
         <v>3300</v>
@@ -2589,7 +2589,7 @@
         <v>36.34000015258789</v>
       </c>
       <c r="F63" t="n">
-        <v>29.27887535095215</v>
+        <v>29.27887153625488</v>
       </c>
       <c r="G63" t="n">
         <v>19700</v>
@@ -2659,7 +2659,7 @@
         <v>37.47999954223633</v>
       </c>
       <c r="F65" t="n">
-        <v>30.77887916564941</v>
+        <v>30.77888298034668</v>
       </c>
       <c r="G65" t="n">
         <v>11300</v>
@@ -2694,7 +2694,7 @@
         <v>35.06999969482422</v>
       </c>
       <c r="F66" t="n">
-        <v>28.79976081848145</v>
+        <v>28.79976844787598</v>
       </c>
       <c r="G66" t="n">
         <v>60900</v>
@@ -2729,7 +2729,7 @@
         <v>36.13000106811523</v>
       </c>
       <c r="F67" t="n">
-        <v>29.67024993896484</v>
+        <v>29.67024421691895</v>
       </c>
       <c r="G67" t="n">
         <v>49000</v>
@@ -2799,7 +2799,7 @@
         <v>41.81999969482422</v>
       </c>
       <c r="F69" t="n">
-        <v>34.34292221069336</v>
+        <v>34.34291839599609</v>
       </c>
       <c r="G69" t="n">
         <v>61500</v>
@@ -2834,7 +2834,7 @@
         <v>41.97000122070312</v>
       </c>
       <c r="F70" t="n">
-        <v>34.46610641479492</v>
+        <v>34.46610260009766</v>
       </c>
       <c r="G70" t="n">
         <v>64100</v>
@@ -2869,7 +2869,7 @@
         <v>43.02999877929688</v>
       </c>
       <c r="F71" t="n">
-        <v>35.78598022460938</v>
+        <v>35.78597640991211</v>
       </c>
       <c r="G71" t="n">
         <v>40400</v>
@@ -2904,7 +2904,7 @@
         <v>46.52000045776367</v>
       </c>
       <c r="F72" t="n">
-        <v>38.68844604492188</v>
+        <v>38.68844223022461</v>
       </c>
       <c r="G72" t="n">
         <v>111300</v>
@@ -2974,7 +2974,7 @@
         <v>46.84999847412109</v>
       </c>
       <c r="F74" t="n">
-        <v>38.962890625</v>
+        <v>38.96288681030273</v>
       </c>
       <c r="G74" t="n">
         <v>185000</v>
@@ -3009,7 +3009,7 @@
         <v>42.88999938964844</v>
       </c>
       <c r="F75" t="n">
-        <v>35.66954803466797</v>
+        <v>35.6695442199707</v>
       </c>
       <c r="G75" t="n">
         <v>38100</v>
@@ -3044,7 +3044,7 @@
         <v>42.2400016784668</v>
       </c>
       <c r="F76" t="n">
-        <v>35.12897872924805</v>
+        <v>35.12897491455078</v>
       </c>
       <c r="G76" t="n">
         <v>41600</v>
@@ -3079,7 +3079,7 @@
         <v>39.72999954223633</v>
       </c>
       <c r="F77" t="n">
-        <v>34.18408203125</v>
+        <v>34.18408584594727</v>
       </c>
       <c r="G77" t="n">
         <v>81600</v>
@@ -3114,7 +3114,7 @@
         <v>43.47000122070312</v>
       </c>
       <c r="F78" t="n">
-        <v>37.40201187133789</v>
+        <v>37.40201950073242</v>
       </c>
       <c r="G78" t="n">
         <v>35200</v>
@@ -3149,7 +3149,7 @@
         <v>43.13999938964844</v>
       </c>
       <c r="F79" t="n">
-        <v>37.11808013916016</v>
+        <v>37.11807632446289</v>
       </c>
       <c r="G79" t="n">
         <v>80400</v>
@@ -3184,7 +3184,7 @@
         <v>42.22000122070312</v>
       </c>
       <c r="F80" t="n">
-        <v>36.32649993896484</v>
+        <v>36.32650756835938</v>
       </c>
       <c r="G80" t="n">
         <v>49800</v>
@@ -3219,7 +3219,7 @@
         <v>42.58000183105469</v>
       </c>
       <c r="F81" t="n">
-        <v>36.63624954223633</v>
+        <v>36.63624572753906</v>
       </c>
       <c r="G81" t="n">
         <v>32500</v>
@@ -3254,7 +3254,7 @@
         <v>44.15000152587891</v>
       </c>
       <c r="F82" t="n">
-        <v>37.98709106445312</v>
+        <v>37.98709869384766</v>
       </c>
       <c r="G82" t="n">
         <v>60200</v>
@@ -3289,7 +3289,7 @@
         <v>46.2599983215332</v>
       </c>
       <c r="F83" t="n">
-        <v>40.54245758056641</v>
+        <v>40.54244995117188</v>
       </c>
       <c r="G83" t="n">
         <v>74300</v>
@@ -3324,7 +3324,7 @@
         <v>47.63999938964844</v>
       </c>
       <c r="F84" t="n">
-        <v>41.75189590454102</v>
+        <v>41.75189971923828</v>
       </c>
       <c r="G84" t="n">
         <v>140500</v>
@@ -3394,7 +3394,7 @@
         <v>47.11999893188477</v>
       </c>
       <c r="F86" t="n">
-        <v>41.29616928100586</v>
+        <v>41.29617309570312</v>
       </c>
       <c r="G86" t="n">
         <v>7200</v>
@@ -3569,7 +3569,7 @@
         <v>48.22000122070312</v>
       </c>
       <c r="F91" t="n">
-        <v>43.07099151611328</v>
+        <v>43.07099533081055</v>
       </c>
       <c r="G91" t="n">
         <v>158200</v>
@@ -3604,7 +3604,7 @@
         <v>48.79999923706055</v>
       </c>
       <c r="F92" t="n">
-        <v>43.58906173706055</v>
+        <v>43.58905792236328</v>
       </c>
       <c r="G92" t="n">
         <v>4200</v>
@@ -3674,7 +3674,7 @@
         <v>48.79999923706055</v>
       </c>
       <c r="F94" t="n">
-        <v>43.58906173706055</v>
+        <v>43.58905792236328</v>
       </c>
       <c r="G94" t="n">
         <v>46200</v>
@@ -3709,7 +3709,7 @@
         <v>48.34999847412109</v>
       </c>
       <c r="F95" t="n">
-        <v>43.90358352661133</v>
+        <v>43.90357971191406</v>
       </c>
       <c r="G95" t="n">
         <v>33000</v>
@@ -3744,7 +3744,7 @@
         <v>48.27000045776367</v>
       </c>
       <c r="F96" t="n">
-        <v>43.8309440612793</v>
+        <v>43.83094024658203</v>
       </c>
       <c r="G96" t="n">
         <v>78700</v>
@@ -3779,7 +3779,7 @@
         <v>49.04999923706055</v>
       </c>
       <c r="F97" t="n">
-        <v>44.53920364379883</v>
+        <v>44.53920745849609</v>
       </c>
       <c r="G97" t="n">
         <v>46500</v>
@@ -3849,7 +3849,7 @@
         <v>45.31999969482422</v>
       </c>
       <c r="F99" t="n">
-        <v>41.1522331237793</v>
+        <v>41.15222930908203</v>
       </c>
       <c r="G99" t="n">
         <v>16700</v>
@@ -3884,7 +3884,7 @@
         <v>48.29000091552734</v>
       </c>
       <c r="F100" t="n">
-        <v>43.84910583496094</v>
+        <v>43.84909820556641</v>
       </c>
       <c r="G100" t="n">
         <v>39400</v>
@@ -3919,7 +3919,7 @@
         <v>46.02000045776367</v>
       </c>
       <c r="F101" t="n">
-        <v>42.54976272583008</v>
+        <v>42.54976654052734</v>
       </c>
       <c r="G101" t="n">
         <v>19800</v>
@@ -3989,7 +3989,7 @@
         <v>49.43999862670898</v>
       </c>
       <c r="F103" t="n">
-        <v>45.71186828613281</v>
+        <v>45.71186447143555</v>
       </c>
       <c r="G103" t="n">
         <v>18800</v>
@@ -4059,7 +4059,7 @@
         <v>52.33000183105469</v>
       </c>
       <c r="F105" t="n">
-        <v>48.38394927978516</v>
+        <v>48.38394546508789</v>
       </c>
       <c r="G105" t="n">
         <v>39500</v>
@@ -4094,7 +4094,7 @@
         <v>51.09999847412109</v>
       </c>
       <c r="F106" t="n">
-        <v>47.24669647216797</v>
+        <v>47.2466926574707</v>
       </c>
       <c r="G106" t="n">
         <v>33200</v>
@@ -4164,7 +4164,7 @@
         <v>54.36999893188477</v>
       </c>
       <c r="F108" t="n">
-        <v>51.02799987792969</v>
+        <v>51.02800369262695</v>
       </c>
       <c r="G108" t="n">
         <v>28500</v>
@@ -4199,7 +4199,7 @@
         <v>51.56999969482422</v>
       </c>
       <c r="F109" t="n">
-        <v>48.40011596679688</v>
+        <v>48.40011215209961</v>
       </c>
       <c r="G109" t="n">
         <v>39800</v>
@@ -4234,7 +4234,7 @@
         <v>51.86999893188477</v>
       </c>
       <c r="F110" t="n">
-        <v>48.68167114257812</v>
+        <v>48.68167495727539</v>
       </c>
       <c r="G110" t="n">
         <v>7700</v>
@@ -4269,7 +4269,7 @@
         <v>52.47999954223633</v>
       </c>
       <c r="F111" t="n">
-        <v>49.25417327880859</v>
+        <v>49.25418090820312</v>
       </c>
       <c r="G111" t="n">
         <v>21400</v>
@@ -4304,7 +4304,7 @@
         <v>55.88000106811523</v>
       </c>
       <c r="F112" t="n">
-        <v>52.4451904296875</v>
+        <v>52.44519424438477</v>
       </c>
       <c r="G112" t="n">
         <v>30100</v>
@@ -4339,7 +4339,7 @@
         <v>57.75</v>
       </c>
       <c r="F113" t="n">
-        <v>55.35189819335938</v>
+        <v>55.35190200805664</v>
       </c>
       <c r="G113" t="n">
         <v>11000</v>
@@ -4374,7 +4374,7 @@
         <v>56.15999984741211</v>
       </c>
       <c r="F114" t="n">
-        <v>53.82792663574219</v>
+        <v>53.82792282104492</v>
       </c>
       <c r="G114" t="n">
         <v>44100</v>
@@ -4479,7 +4479,7 @@
         <v>48.65999984741211</v>
       </c>
       <c r="F117" t="n">
-        <v>46.63936614990234</v>
+        <v>46.63936996459961</v>
       </c>
       <c r="G117" t="n">
         <v>17900</v>
@@ -4514,7 +4514,7 @@
         <v>51.36999893188477</v>
       </c>
       <c r="F118" t="n">
-        <v>49.23683166503906</v>
+        <v>49.2368278503418</v>
       </c>
       <c r="G118" t="n">
         <v>46900</v>
@@ -4549,7 +4549,7 @@
         <v>56.66999816894531</v>
       </c>
       <c r="F119" t="n">
-        <v>54.69451522827148</v>
+        <v>54.69451141357422</v>
       </c>
       <c r="G119" t="n">
         <v>83900</v>
@@ -4829,7 +4829,7 @@
         <v>62.52999877929688</v>
       </c>
       <c r="F127" t="n">
-        <v>61.03723526000977</v>
+        <v>61.0372314453125</v>
       </c>
       <c r="G127" t="n">
         <v>156500</v>
@@ -5217,7 +5217,7 @@
         <v>59.37269973754883</v>
       </c>
       <c r="G138" t="n">
-        <v>4158</v>
+        <v>4176</v>
       </c>
       <c r="H138" t="n">
         <v>0.00836784409809388</v>

--- a/etf_dfs/ENZL.xlsx
+++ b/etf_dfs/ENZL.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>ENZL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4813 +406,4760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ENZL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>40422</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>27.70000076293945</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>27.70000076293945</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>27.14999961853027</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>27.28000068664551</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>17.06249809265137</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>26000</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>40452</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>29.36000061035156</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>29.45999908447266</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>29.29999923706055</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>29.40999984741211</v>
       </c>
-      <c r="F3" t="n">
-        <v>18.39472961425781</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>18.39472389221191</v>
+      </c>
+      <c r="G3">
         <v>16600</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.07807914615666811</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>40483</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>28.29000091552734</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>28.54999923706055</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28.29000091552734</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>28.43000030517578</v>
       </c>
-      <c r="F4" t="n">
-        <v>17.78178024291992</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>17.78177452087402</v>
+      </c>
+      <c r="G4">
         <v>7300</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-0.03332198392794494</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.07877249451467459</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>40513</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>29.20999908447266</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>29.42000007629395</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>29.17000007629395</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>29.3799991607666</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>18.79426383972168</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>11000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.03341536564872527</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.05606386076298656</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>40544</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>29.29999923706055</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>29.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>29.23999977111816</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>29.43000030517578</v>
       </c>
-      <c r="F6" t="n">
-        <v>18.82625389099121</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>18.82625007629395</v>
+      </c>
+      <c r="G6">
         <v>14800</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.001701876985617856</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.04736809962447825</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>40575</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>28.65999984741211</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>28.79999923706055</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>28.65999984741211</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>28.73999977111816</v>
       </c>
-      <c r="F7" t="n">
-        <v>18.38486099243164</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>18.38485717773438</v>
+      </c>
+      <c r="G7">
         <v>32800</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-0.02344548171602523</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.04538456968935115</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>40603</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>29.73999977111816</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>29.95999908447266</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>29.72999954223633</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>29.80999946594238</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>19.06933212280273</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>50800</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.03723033066616432</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.04195228135495872</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>40634</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>32.04000091552734</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>32.43999862670898</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>32.04000091552734</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>32.36000061035156</v>
       </c>
-      <c r="F9" t="n">
-        <v>20.70055961608887</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>20.70055770874023</v>
+      </c>
+      <c r="G9">
         <v>17000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.08554180443117843</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.04653279306331306</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>40664</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>33.36999893188477</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>33.52999877929688</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>33.18000030517578</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>33.52999877929688</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21.44900512695312</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>61700</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.0361556905710021</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.04324233535228366</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>40695</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>32.34999847412109</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>32.59000015258789</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>32.34999847412109</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>32.58000183105469</v>
       </c>
-      <c r="F11" t="n">
-        <v>21.10053253173828</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>21.10054016113281</v>
+      </c>
+      <c r="G11">
         <v>33500</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-0.02833274628177929</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.04444507240595989</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>40725</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>33.75</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>34.2599983215332</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>33.63999938964844</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>34</v>
       </c>
-      <c r="F12" t="n">
-        <v>22.02020072937012</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>22.02020454406738</v>
+      </c>
+      <c r="G12">
         <v>34900</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.04358496283421931</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.04251922066143633</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>40756</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>32.81999969482422</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>32.90999984741211</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>32.4900016784668</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>32.56999969482422</v>
       </c>
-      <c r="F13" t="n">
-        <v>21.09405899047852</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>21.09405517578125</v>
+      </c>
+      <c r="G13">
         <v>43900</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-0.04205883250517006</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.0448620430314282</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>40787</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>29.22999954223633</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>29.6299991607666</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>28.85000038146973</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>28.97999954223633</v>
       </c>
-      <c r="F14" t="n">
-        <v>18.76898765563965</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>18.76898384094238</v>
+      </c>
+      <c r="G14">
         <v>84700</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-0.1102241383551007</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.05640443720850848</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.06231667202351021</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.06231667202351021</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>40817</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>30.43000030517578</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>30.53000068664551</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>30.1299991607666</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>30.1299991607666</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>19.51378631591797</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>58800</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.03968252714615228</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.05478045881880024</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.02448144566780219</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.02448144566780219</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>40848</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>29.29000091552734</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>29.43000030517578</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>28.95999908447266</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>29.30999946594238</v>
       </c>
-      <c r="F16" t="n">
-        <v>18.98270797729492</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>18.98270988464355</v>
+      </c>
+      <c r="G16">
         <v>32200</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-0.02721539056303635</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.0535177033058903</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.03095318857968477</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.03095318857968477</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>40878</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>27.45999908447266</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>27.78000068664551</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>27.3799991607666</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>27.55999946594238</v>
       </c>
-      <c r="F17" t="n">
-        <v>18.81608200073242</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>18.81608390808105</v>
+      </c>
+      <c r="G17">
         <v>29300</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>-0.05970658587126432</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.05432911916135939</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-0.06194689403717224</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>-0.06194689403717224</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>40909</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>29.79000091552734</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>29.79000091552734</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>29.43000030517578</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>29.54000091552734</v>
       </c>
-      <c r="F18" t="n">
-        <v>20.16789436340332</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>20.16789245605469</v>
+      </c>
+      <c r="G18">
         <v>13300</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.07184330507813597</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.05530935447374872</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.003737703337101772</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.003737703337101772</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>40940</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>30.54000091552734</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>30.54000091552734</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>29.93000030517578</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>29.98999977111816</v>
       </c>
-      <c r="F19" t="n">
-        <v>20.47512435913086</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>20.47512054443359</v>
+      </c>
+      <c r="G19">
         <v>9900</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.01523354237116092</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.05359557010566041</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.04349338935124725</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.04349338935124725</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>40969</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>31.70000076293945</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>31.70000076293945</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>31.59000015258789</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>31.65999984741211</v>
       </c>
-      <c r="F20" t="n">
-        <v>21.61528587341309</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>21.61528778076172</v>
+      </c>
+      <c r="G20">
         <v>26300</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.05568523137843551</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.05324906027905724</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.06205972541473326</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.06205972541473326</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>41000</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>31.92000007629395</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>31.92000007629395</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>31.71999931335449</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>31.71999931335449</v>
       </c>
-      <c r="F21" t="n">
-        <v>21.65625</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>21.65624809265137</v>
+      </c>
+      <c r="G21">
         <v>23000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.001895118958672004</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.05177942295595343</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>-0.01977754279746036</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>-0.01977754279746036</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>41030</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>28.8700008392334</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>28.8700008392334</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>28.48999977111816</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>28.77000045776367</v>
       </c>
-      <c r="F22" t="n">
-        <v>19.64218902587891</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>19.6421947479248</v>
+      </c>
+      <c r="G22">
         <v>19500</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-0.09300122696877977</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.05534220779890522</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>-0.1419623768215663</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-0.1419623768215663</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>41061</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>28.97999954223633</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>29.06999969482422</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>28.93000030517578</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>28.98999977111816</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>20.21562004089355</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>67000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.007646830373793989</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.05394634870433488</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>-0.1101903578321655</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>-0.1101903578321655</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>41091</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>30.28000068664551</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>30.45000076293945</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>30.25</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>30.34000015258789</v>
       </c>
-      <c r="F24" t="n">
-        <v>21.15701675415039</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>21.15701293945312</v>
+      </c>
+      <c r="G24">
         <v>12600</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.04656779552011892</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.05341178148975866</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>-0.1076470543356502</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>-0.1076470543356502</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>41122</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>31.1299991607666</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>31.23999977111816</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>30.89999961853027</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>31.04000091552734</v>
       </c>
-      <c r="F25" t="n">
-        <v>21.6451473236084</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>21.64515113830566</v>
+      </c>
+      <c r="G25">
         <v>18300</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.02307187737043392</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.05230185698649314</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>-0.04697570751098323</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-0.04697570751098323</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>41153</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>33.68999862670898</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>33.81000137329102</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>33.47000122070312</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>33.59999847412109</v>
       </c>
-      <c r="F26" t="n">
-        <v>23.4303150177002</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>23.4303092956543</v>
+      </c>
+      <c r="G26">
         <v>82100</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0.08247414571799006</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.05342437197039713</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>0.1594202555162723</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>0.1594202555162723</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>41183</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>34.18999862670898</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>34.43999862670898</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>34.06000137329102</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>34.43999862670898</v>
       </c>
-      <c r="F27" t="n">
-        <v>24.01607131958008</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>24.01606750488281</v>
+      </c>
+      <c r="G27">
         <v>31200</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0.02500000567663307</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.05238430417648446</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.1430467834713582</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.1430467834713582</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>41214</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>34.83000183105469</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>35.02999877929688</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>34.70999908447266</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>34.84000015258789</v>
       </c>
-      <c r="F28" t="n">
-        <v>24.29500389099121</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28">
+        <v>24.29500579833984</v>
+      </c>
+      <c r="G28">
         <v>52800</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>0.01161444662685596</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.05132623952907438</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.1886728347802002</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.1886728347802002</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>41244</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>34.02000045776367</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>34.91999816894531</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>34.02000045776367</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>34.58000183105469</v>
       </c>
-      <c r="F29" t="n">
-        <v>24.78297424316406</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>24.78297233581543</v>
+      </c>
+      <c r="G29">
         <v>27200</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-0.007462638358050944</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.05045122204444556</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.2547170718848293</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.2547170718848293</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>41275</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>36.61000061035156</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>36.88999938964844</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>36.61000061035156</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>36.70000076293945</v>
       </c>
-      <c r="F30" t="n">
-        <v>26.30234909057617</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>26.30234718322754</v>
+      </c>
+      <c r="G30">
         <v>222600</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.06130707980416861</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.05044645528997258</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.2423831965302528</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.2423831965302528</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>41306</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>36.47000122070312</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>36.5</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>36.22999954223633</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>36.31000137329102</v>
       </c>
-      <c r="F31" t="n">
-        <v>26.0228443145752</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>26.02284240722656</v>
+      </c>
+      <c r="G31">
         <v>52200</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-0.01062668614552909</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.0497136064503618</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.2107369673360024</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.2107369673360024</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>41334</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>37.15999984741211</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>37.29999923706055</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>37.15000152587891</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>37.27000045776367</v>
       </c>
-      <c r="F32" t="n">
-        <v>26.71085548400879</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>26.71085357666016</v>
+      </c>
+      <c r="G32">
         <v>38000</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.02643897130719508</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.04892900941318321</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.1771952191215858</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.1771952191215858</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>41365</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>39.5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>39.65999984741211</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>39.38000106811523</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>39.61000061035156</v>
       </c>
-      <c r="F33" t="n">
-        <v>28.38790702819824</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>28.38789939880371</v>
+      </c>
+      <c r="G33">
         <v>79800</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.06278508515822812</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.04897626434693523</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>0.2487390122254918</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.2487390122254918</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>41395</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>35.63000106811523</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>35.63000106811523</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>35.22000122070312</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>35.2599983215332</v>
       </c>
-      <c r="F34" t="n">
-        <v>25.27031707763672</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>25.27032089233398</v>
+      </c>
+      <c r="G34">
         <v>66200</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-0.1098208084268886</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.0528660995561001</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.2255821258431083</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.2255821258431083</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>41426</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>33.54999923706055</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>33.68000030517578</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>33.20000076293945</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>33.54999923706055</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>24.55476570129395</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>204800</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-0.04849685666117465</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.05300156901293028</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.157295601998775</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.157295601998775</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>41456</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>35.38000106811523</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>34.95999908447266</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>35.18000030517578</v>
       </c>
-      <c r="F36" t="n">
-        <v>25.74773979187012</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>25.74773788452148</v>
+      </c>
+      <c r="G36">
         <v>37600</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>0.04858423562390657</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.05266179835414685</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.1595253832645436</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.1595253832645436</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>41487</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>34.09999847412109</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>34.20999908447266</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>33.83000183105469</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>33.84999847412109</v>
       </c>
-      <c r="F37" t="n">
-        <v>24.77433013916016</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>24.77433204650879</v>
+      </c>
+      <c r="G37">
         <v>46600</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.03780562306757607</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.05247822210792997</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.09052826919177326</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.09052826919177326</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>41518</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>38.52999877929688</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>38.58000183105469</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>38.22999954223633</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>38.45999908447266</v>
       </c>
-      <c r="F38" t="n">
-        <v>28.14832305908203</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>28.14831924438477</v>
+      </c>
+      <c r="G38">
         <v>10900</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0.1361890935940806</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.05599100932973014</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0.1446428818767584</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>0.1446428818767584</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>41548</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>39.7599983215332</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>39.90999984741211</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>39.52999877929688</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>39.52999877929688</v>
       </c>
-      <c r="F39" t="n">
-        <v>28.93144416809082</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>28.93144226074219</v>
+      </c>
+      <c r="G39">
         <v>52300</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>0.02782110557189821</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.05527613699387381</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0.1477932739707046</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.1477932739707046</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>41579</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>38.25</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>38.27999877929688</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>37.93000030517578</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>37.95999908447266</v>
       </c>
-      <c r="F40" t="n">
-        <v>27.78238105773926</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>27.78238296508789</v>
+      </c>
+      <c r="G40">
         <v>35800</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-0.03971666438923538</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.05515511054194238</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0.0895522077560329</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.0895522077560329</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>41609</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>37.15999984741211</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>37.40000152587891</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>37.15999984741211</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>37.34000015258789</v>
       </c>
-      <c r="F41" t="n">
-        <v>27.8849925994873</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>27.88499450683594</v>
+      </c>
+      <c r="G41">
         <v>10500</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>-0.01633295434241389</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.05459036648207398</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0.07981486915522873</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.07981486915522873</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>41640</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>37.54999923706055</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>37.79000091552734</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>37.54999923706055</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>37.68000030517578</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>28.13890647888184</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>21400</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.009105520921223853</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.05388598852664097</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.02670298424696371</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.02670298424696371</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>41671</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>40.11999893188477</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>40.20000076293945</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>39.93000030517578</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>39.93000030517578</v>
       </c>
-      <c r="F43" t="n">
-        <v>29.81917572021484</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>29.81917762756348</v>
+      </c>
+      <c r="G43">
         <v>13700</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0.05971337531255116</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.05378231958499285</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>0.09969701996617308</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>0.09969701996617308</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>41699</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>42.84999847412109</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>43.04999923706055</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>42.7599983215332</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>42.95000076293945</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>32.07447052001953</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>140600</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0.07563236751020552</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.0540575240397253</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>0.1524014015404336</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.1524014015404336</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>41730</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>43.06000137329102</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>43.5</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>43.06000137329102</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>43.40999984741211</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>32.41798782348633</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>69400</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>0.01071010654951099</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.0534106527411993</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>0.09593534911654267</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.09593534911654267</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>41760</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>42.29999923706055</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>42.31000137329102</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>42.22000122070312</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>42.31000137329102</v>
       </c>
-      <c r="F46" t="n">
-        <v>31.59652900695801</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>31.59652328491211</v>
+      </c>
+      <c r="G46">
         <v>32300</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.02533974839870146</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.05308940570478895</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>0.1999433745705084</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>0.1999433745705084</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>41791</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>41.84999847412109</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>42.13000106811523</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>41.61000061035156</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>42.13000106811523</v>
       </c>
-      <c r="F47" t="n">
-        <v>32.19053649902344</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>32.19053268432617</v>
+      </c>
+      <c r="G47">
         <v>135000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-0.004254320475853501</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.05253453580612438</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>0.2557377653104953</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>0.2557377653104953</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>41821</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>40.65000152587891</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>40.75</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>40.58000183105469</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>40.59999847412109</v>
       </c>
-      <c r="F48" t="n">
-        <v>31.02149200439453</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>31.0214900970459</v>
+      </c>
+      <c r="G48">
         <v>38100</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>-0.03631622490396935</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.05241501235650226</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>0.1540647561662445</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>0.1540647561662445</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>41852</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>40.91999816894531</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>40.91999816894531</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>40.77000045776367</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>40.83000183105469</v>
       </c>
-      <c r="F49" t="n">
-        <v>31.19722747802734</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>31.19723129272461</v>
+      </c>
+      <c r="G49">
         <v>7800</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>0.005665107526548363</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.05184605721881357</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>0.2062039489387253</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.2062039489387253</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>41883</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>38.20000076293945</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>38.5099983215332</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>38.20000076293945</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>38.4900016784668</v>
       </c>
-      <c r="F50" t="n">
-        <v>29.40929412841797</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>29.40929222106934</v>
+      </c>
+      <c r="G50">
         <v>11900</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-0.05731080204870631</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.05220179408520891</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>0.0007800986663635268</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.0007800986663635268</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>41913</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>39.61999893188477</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>39.79000091552734</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>39.58000183105469</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>39.77999877929688</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>30.39495086669922</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>7100</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>0.03351512196872064</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.0517783035594945</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>0.006324310845436498</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.006324310845436498</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>41944</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>40.18999862670898</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>40.18999862670898</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>40.0099983215332</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>40.0099983215332</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>30.57068824768066</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>18000</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>0.005781788569486634</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.05124930514280702</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>0.0540041961670934</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>0.0540041961670934</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>41974</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>40.11999893188477</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>40.22999954223633</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>39.88000106811523</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>39.97999954223633</v>
       </c>
-      <c r="F53" t="n">
-        <v>31.40387725830078</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>31.40387916564941</v>
+      </c>
+      <c r="G53">
         <v>73500</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-0.0007497820683668444</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.05075250544994025</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>0.07070164378308053</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>0.07070164378308053</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>42005</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>38.43999862670898</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>38.65000152587891</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>38.27999877929688</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>38.54999923706055</v>
       </c>
-      <c r="F54" t="n">
-        <v>30.28062629699707</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>30.2806282043457</v>
+      </c>
+      <c r="G54">
         <v>28300</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-0.03576789198471797</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.05063088205094309</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>0.02308914344051272</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>0.02308914344051272</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>42036</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>40.86999893188477</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>41.11999893188477</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>40.86999893188477</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>40.95000076293945</v>
       </c>
-      <c r="F55" t="n">
-        <v>32.16580200195312</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>32.16580963134766</v>
+      </c>
+      <c r="G55">
         <v>14100</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0.0622568501524543</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.05069393556880233</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>0.02554471449957529</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>0.02554471449957529</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>42064</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>40.22000122070312</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>40.29999923706055</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>40.02999877929688</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>40.06000137329102</v>
       </c>
-      <c r="F56" t="n">
-        <v>31.46671867370605</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>31.46671676635742</v>
+      </c>
+      <c r="G56">
         <v>25300</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-0.02173380642409917</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.05038678245860978</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>-0.0672875282494092</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-0.0672875282494092</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>42095</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>40.59000015258789</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>40.61000061035156</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>40.47999954223633</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>40.54999923706055</v>
       </c>
-      <c r="F57" t="n">
-        <v>31.85160636901855</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>31.85160827636719</v>
+      </c>
+      <c r="G57">
         <v>25400</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.01223159877613544</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.04992075004130101</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>-0.06588345128782724</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-0.06588345128782724</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>42125</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>38.15000152587891</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>38.41999816894531</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>37.90999984741211</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>38.11999893188477</v>
       </c>
-      <c r="F58" t="n">
-        <v>29.94286727905273</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>29.94287109375</v>
+      </c>
+      <c r="G58">
         <v>67800</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-0.05992602591604712</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.05030183211031135</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>-0.09903101643601619</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>-0.09903101643601619</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>42156</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>34.77000045776367</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>34.77000045776367</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>34.52999877929688</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>34.68000030517578</v>
       </c>
-      <c r="F59" t="n">
-        <v>27.94142913818359</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>27.94143104553223</v>
+      </c>
+      <c r="G59">
         <v>8800</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.0902413096300394</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.05149551642327695</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>-0.1768336238799137</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>-0.1768336238799137</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>42186</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>35.13999938964844</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>35.22000122070312</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>34.81999969482422</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>34.86000061035156</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>28.08645439147949</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>12500</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>0.005190320172774543</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.05104182156194237</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>-0.1413792630418022</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-0.1413792630418022</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>42217</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>32.47999954223633</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>32.47999954223633</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>31.96999931335449</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>32.22000122070312</v>
       </c>
-      <c r="F61" t="n">
-        <v>25.95942687988281</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>25.95942497253418</v>
+      </c>
+      <c r="G61">
         <v>38200</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>-0.07573147858363771</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.05169374533658799</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>-0.2108743625821472</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>-0.2108743625821472</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>42248</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>32.02999877929688</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>32.02999877929688</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>31.79000091552734</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>31.97999954223633</v>
       </c>
-      <c r="F62" t="n">
-        <v>25.76605987548828</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>25.76605796813965</v>
+      </c>
+      <c r="G62">
         <v>3300</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>-0.007448841383425608</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.05127563159108479</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>-0.1691348883435483</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>-0.1691348883435483</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>42278</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>36.31999969482422</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>36.5</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>36.04999923706055</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>36.34000015258789</v>
       </c>
-      <c r="F63" t="n">
-        <v>29.27887153625488</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63">
+        <v>29.27887916564941</v>
+      </c>
+      <c r="G63">
         <v>19700</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>0.1363352305428667</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.05359740893591555</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>-0.08647558401885369</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>-0.08647558401885369</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>42309</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>35.72999954223633</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>35.93999862670898</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>35.72999954223633</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>35.77000045776367</v>
       </c>
-      <c r="F64" t="n">
-        <v>28.81963539123535</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>28.81963348388672</v>
+      </c>
+      <c r="G64">
         <v>43800</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-0.01568518691334198</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.05322835381647784</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.1059734576766423</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>-0.1059734576766423</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>42339</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>37.65000152587891</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>37.75</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>37.47999954223633</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>37.47999954223633</v>
       </c>
-      <c r="F65" t="n">
-        <v>30.77888298034668</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>30.77887535095215</v>
+      </c>
+      <c r="G65">
         <v>11300</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>0.04780539733265532</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.05306232088261918</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>-0.06253126634878792</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>-0.06253126634878792</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>42370</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>35.06999969482422</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>35.06999969482422</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>34.79000091552734</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>35.06999969482422</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>28.79976844787598</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>60900</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>-0.06430095722643414</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.05337695208415423</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>-0.09027236345288392</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>-0.09027236345288392</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>42401</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>36.38999938964844</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>36.38999938964844</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>36.02000045776367</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>36.13000106811523</v>
       </c>
-      <c r="F67" t="n">
-        <v>29.67024421691895</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67">
+        <v>29.67024612426758</v>
+      </c>
+      <c r="G67">
         <v>49000</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>0.03022530317978456</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.05304825058814259</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>-0.117704508059165</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>-0.117704508059165</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>42430</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>41.20000076293945</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>41.40000152587891</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>41.09000015258789</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>41.13000106811523</v>
       </c>
-      <c r="F68" t="n">
-        <v>33.77628707885742</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>33.77629852294922</v>
+      </c>
+      <c r="G68">
         <v>17800</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>0.1383891461994033</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.05511383166024519</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>0.02670992656374738</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>0.02670992656374738</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>42461</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>41.56000137329102</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>41.95999908447266</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>41.56000137329102</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>41.81999969482422</v>
       </c>
-      <c r="F69" t="n">
-        <v>34.34291839599609</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69">
+        <v>34.34292221069336</v>
+      </c>
+      <c r="G69">
         <v>61500</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.0167760420323424</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.0547058898284658</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>0.03131937069441326</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>0.03131937069441326</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>42491</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>41.83000183105469</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>42.16999816894531</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>41.27000045776367</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>41.97000122070312</v>
       </c>
-      <c r="F70" t="n">
-        <v>34.46610260009766</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>34.46609878540039</v>
+      </c>
+      <c r="G70">
         <v>64100</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>0.003586837086884787</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.05429857293259742</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0.1009969149185388</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>0.1009969149185388</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>42522</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>42.79999923706055</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>43.11999893188477</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>42.65999984741211</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>43.02999877929688</v>
       </c>
-      <c r="F71" t="n">
-        <v>35.78597640991211</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="F71">
+        <v>35.78598022460938</v>
+      </c>
+      <c r="G71">
         <v>40400</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>0.02525607642991612</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.05393881330012403</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>0.2407727335825574</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>0.2407727335825574</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>42552</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>45.97000122070312</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>46.75</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>45.75</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>46.52000045776367</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>38.68844223022461</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>111300</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>0.08110624628104679</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.05425384188225549</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>0.3344807700304431</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>0.3344807700304431</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>42583</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>46.72000122070312</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>46.90999984741211</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>46.65999984741211</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>46.81999969482422</v>
       </c>
-      <c r="F73" t="n">
-        <v>38.93794631958008</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>38.93793869018555</v>
+      </c>
+      <c r="G73">
         <v>36300</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>0.006448822745238836</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.05386583399299478</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>0.4531346344189395</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>0.4531346344189395</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>42614</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>46.84999847412109</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>47.06999969482422</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>46.68000030517578</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>46.84999847412109</v>
       </c>
-      <c r="F74" t="n">
-        <v>38.96288681030273</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>38.962890625</v>
+      </c>
+      <c r="G74">
         <v>185000</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.0006407257473817207</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.05349434377068333</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>0.4649780845758236</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>0.4649780845758236</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>42644</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>42.45000076293945</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>42.95999908447266</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>41.97000122070312</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>42.88999938964844</v>
       </c>
-      <c r="F75" t="n">
-        <v>35.6695442199707</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>35.66955184936523</v>
+      </c>
+      <c r="G75">
         <v>38100</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.08452506325395237</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.05423617218763577</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>0.180242135651012</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>0.180242135651012</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>42675</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>42.47999954223633</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>42.54000091552734</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>42.18999862670898</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>42.2400016784668</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>35.12897491455078</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>41600</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>-0.01515499464750558</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.05392865442131271</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.180877862395969</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>0.180877862395969</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>42705</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>40.02000045776367</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>40.13999938964844</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>39.65000152587891</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>39.72999954223633</v>
       </c>
-      <c r="F77" t="n">
-        <v>34.18408584594727</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77">
+        <v>34.18408203125</v>
+      </c>
+      <c r="G77">
         <v>81600</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-0.05942239669725258</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.05411510867039534</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>0.06003201780897749</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>0.06003201780897749</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>42736</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>43.40000152587891</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>43.59999847412109</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>43.29000091552734</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>43.47000122070312</v>
       </c>
-      <c r="F78" t="n">
-        <v>37.40201950073242</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>37.40201187133789</v>
+      </c>
+      <c r="G78">
         <v>35200</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>0.09413545737625451</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.05468587864270207</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>0.2395210036776423</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>0.2395210036776423</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>42767</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>43.09000015258789</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>43.38999938964844</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>43.0099983215332</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>43.13999938964844</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>37.11807632446289</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>80400</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.007591484283131833</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.05435253709541572</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>0.1940215365152462</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>0.1940215365152462</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>42795</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>42.13000106811523</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>42.2599983215332</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>42.02999877929688</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>42.22000122070312</v>
       </c>
-      <c r="F80" t="n">
-        <v>36.32650756835938</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>36.32651138305664</v>
+      </c>
+      <c r="G80">
         <v>49800</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>-0.02132587348079729</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.05409641967936226</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>0.02650134024511086</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>0.02650134024511086</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>42826</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>42.2599983215332</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>42.59999847412109</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>42.2599983215332</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>42.58000183105469</v>
       </c>
-      <c r="F81" t="n">
-        <v>36.63624572753906</v>
-      </c>
-      <c r="G81" t="n">
+      <c r="F81">
+        <v>36.63625335693359</v>
+      </c>
+      <c r="G81">
         <v>32500</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>0.008526778776478006</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.05374878699556225</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>0.01817317412186714</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>0.01817317412186714</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>42856</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>44.29999923706055</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>44.36999893188477</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>44.13999938964844</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>44.15000152587891</v>
       </c>
-      <c r="F82" t="n">
-        <v>37.98709869384766</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82">
+        <v>37.98709487915039</v>
+      </c>
+      <c r="G82">
         <v>60200</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>0.03687176203170517</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.05351138544012098</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>0.05194186899619213</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>0.05194186899619213</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>42887</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>46.02000045776367</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>46.38000106811523</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>46.02000045776367</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>46.2599983215332</v>
       </c>
-      <c r="F83" t="n">
-        <v>40.54244995117188</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>40.54245758056641</v>
+      </c>
+      <c r="G83">
         <v>74300</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.04779154524870188</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.05336458159365603</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>0.07506390039198396</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>0.07506390039198396</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>42917</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>47.36000061035156</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>47.65000152587891</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>47.34999847412109</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>47.63999938964844</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>41.75189971923828</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>140500</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>0.02983141197981554</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.05308923639755302</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>0.02407564318279909</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>0.02407564318279909</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>42948</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>46.22999954223633</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>46.61000061035156</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>46.22999954223633</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>46.59000015258789</v>
       </c>
-      <c r="F85" t="n">
-        <v>40.83167266845703</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85">
+        <v>40.83168029785156</v>
+      </c>
+      <c r="G85">
         <v>16200</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-0.02204028653469503</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.05286885438288391</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.004912420840142651</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-0.004912420840142651</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>42979</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>47.2400016784668</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>48</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>47.02000045776367</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>47.11999893188477</v>
       </c>
-      <c r="F86" t="n">
-        <v>41.29617309570312</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>41.29616165161133</v>
+      </c>
+      <c r="G86">
         <v>7200</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.01137580548532013</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.05255081902584417</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>0.005763083597810859</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>0.005763083597810859</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>43009</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>45.63000106811523</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>45.65999984741211</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>45.54000091552734</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>45.56999969482422</v>
       </c>
-      <c r="F87" t="n">
-        <v>39.937744140625</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87">
+        <v>39.93774032592773</v>
+      </c>
+      <c r="G87">
         <v>41700</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>-0.03289472139634764</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.05242397733067323</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>0.06248543584317701</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>0.06248543584317701</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>43040</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>45.65000152587891</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>45.93000030517578</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>45.52000045776367</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>45.52000045776367</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>39.8939208984375</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>22100</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>-0.001097196343984752</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.05212274573140499</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>0.07765148316670079</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>0.07765148316670079</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>43070</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>47.88000106811523</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>47.93999862670898</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>47.47000122070312</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>47.47000122070312</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>42.40108108520508</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>10000</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>0.04283832915926244</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.05195868474198777</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>0.1948150457499633</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>0.1948150457499633</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>43101</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>50.02999877929688</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>50.02999877929688</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>48.88000106811523</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>49.61999893188477</v>
       </c>
-      <c r="F90" t="n">
-        <v>44.32149505615234</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="F90">
+        <v>44.32149887084961</v>
+      </c>
+      <c r="G90">
         <v>37800</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>0.04529171383808528</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.05181431001311418</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>0.1414768239816067</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>0.1414768239816067</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>43132</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>48.79999923706055</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>49.04000091552734</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>48.22000122070312</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>48.22000122070312</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>43.07099533081055</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>158200</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>-0.02821438414586563</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.0516629741800724</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>0.1177561869014223</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>0.1177561869014223</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>43160</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>49.11999893188477</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>49.11999893188477</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>48.27999877929688</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>48.79999923706055</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>43.58905792236328</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>4200</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>0.01202816262286621</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.05137391096901658</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>0.1558502564213768</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>0.1558502564213768</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>43191</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>47.93000030517578</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>48.08000183105469</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>47.54000091552734</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>47.54000091552734</v>
       </c>
-      <c r="F93" t="n">
-        <v>42.46360397338867</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="F93">
+        <v>42.46360015869141</v>
+      </c>
+      <c r="G93">
         <v>8100</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>-0.02581963814000043</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.05120895837522916</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>0.1164865869229532</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>0.1164865869229532</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>43221</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>48.9900016784668</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>49</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>48.63000106811523</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>48.79999923706055</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>43.58905792236328</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>46200</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.02650396081758744</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.05096571244812666</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>0.105322707824959</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>0.105322707824959</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>43252</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>48.38999938964844</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>48.5099983215332</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>48.2599983215332</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>48.34999847412109</v>
       </c>
-      <c r="F95" t="n">
-        <v>43.90357971191406</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95">
+        <v>43.90358352661133</v>
+      </c>
+      <c r="G95">
         <v>33000</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>-0.009221327253581268</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.05071802817976537</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>0.04517942560354649</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>0.04517942560354649</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>43282</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>48.40000152587891</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>48.40000152587891</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>48.13000106811523</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>48.27000045776367</v>
       </c>
-      <c r="F96" t="n">
-        <v>43.83094024658203</v>
-      </c>
-      <c r="G96" t="n">
+      <c r="F96">
+        <v>43.8309440612793</v>
+      </c>
+      <c r="G96">
         <v>78700</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>-0.001654560886909628</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.05045332436033602</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>0.01322420395018153</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>0.01322420395018153</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>43313</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>49.04000091552734</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>49.20000076293945</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>48.72000122070312</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>49.04999923706055</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>44.53920745849609</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>46500</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.01615907959187557</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.05019239784135206</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>0.05280101044034913</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>0.05280101044034913</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>43344</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>48.56999969482422</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>48.93000030517578</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>48.56999969482422</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>48.59999847412109</v>
       </c>
-      <c r="F98" t="n">
-        <v>44.13059234619141</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>44.13058853149414</v>
+      </c>
+      <c r="G98">
         <v>37600</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>-0.009174327623627132</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.04995628423120786</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>0.03140915907862762</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>0.03140915907862762</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>43374</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>45.33000183105469</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>45.5099983215332</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>45.2400016784668</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>45.31999969482422</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>41.15222930908203</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>16700</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-0.06748968893576068</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.05027160531591589</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>-0.005486065430638898</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-0.005486065430638898</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>43405</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>48</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>48.34000015258789</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>47.93000030517578</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>48.29000091552734</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>43.84909820556641</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>39400</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>0.0655340079590141</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.05036622805688915</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>0.06085238202784837</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>0.06085238202784837</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
         <v>43435</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>46.18000030517578</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>46.31000137329102</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>45.88999938964844</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>46.02000045776367</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>42.54976654052734</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>19800</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>-0.04700767063008626</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.05040270547077166</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>-0.03054562303881014</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>-0.03054562303881014</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
         <v>43466</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>48.61000061035156</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>48.90000152587891</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>48.43999862670898</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>48.59999847412109</v>
       </c>
-      <c r="F102" t="n">
-        <v>44.93521499633789</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102">
+        <v>44.93521118164062</v>
+      </c>
+      <c r="G102">
         <v>102200</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>0.05606253782472903</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.05039139994726505</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>-0.0205562369955683</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-0.0205562369955683</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
         <v>43497</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>49.52000045776367</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>49.54000091552734</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>49.33000183105469</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>49.43999862670898</v>
       </c>
-      <c r="F103" t="n">
-        <v>45.71186447143555</v>
-      </c>
-      <c r="G103" t="n">
+      <c r="F103">
+        <v>45.71186828613281</v>
+      </c>
+      <c r="G103">
         <v>18800</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>0.01728395429961127</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.05014917277179787</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>0.02530065066614018</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>0.02530065066614018</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
         <v>43525</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>52.15999984741211</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>52.36999893188477</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>52.04000091552734</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>52.29000091552734</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>48.34696197509766</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>68700</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>0.05764567896405048</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>0.05015024566004706</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>0.07151642895552257</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>0.07151642895552257</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
         <v>43556</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>52.06999969482422</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>52.33000183105469</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>51.91999816894531</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>52.33000183105469</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>48.38394546508789</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>39500</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>0.0007649821156432424</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>0.04990839678691365</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>0.1007572743643521</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>0.1007572743643521</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
         <v>43586</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>50.77000045776367</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>51.15999984741211</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>50.77000045776367</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>51.09999847412109</v>
       </c>
-      <c r="F106" t="n">
-        <v>47.2466926574707</v>
-      </c>
-      <c r="G106" t="n">
+      <c r="F106">
+        <v>47.24669647216797</v>
+      </c>
+      <c r="G106">
         <v>33200</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>-0.02350474515373824</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.04975891071608097</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>0.04713113264382685</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>0.04713113264382685</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
         <v>43617</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>53.38999938964844</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>53.52000045776367</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>53.22999954223633</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>53.38000106811523</v>
       </c>
-      <c r="F107" t="n">
-        <v>50.09886169433594</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107">
+        <v>50.09885787963867</v>
+      </c>
+      <c r="G107">
         <v>26100</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>0.0446184473987572</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.04965306635046186</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>0.1040331489707575</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>0.1040331489707575</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
         <v>43647</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>54.86999893188477</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>54.93000030517578</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>54.04000091552734</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>54.36999893188477</v>
       </c>
-      <c r="F108" t="n">
-        <v>51.02800369262695</v>
-      </c>
-      <c r="G108" t="n">
+      <c r="F108">
+        <v>51.02799987792969</v>
+      </c>
+      <c r="G108">
         <v>28500</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.01854623162158142</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.04942744044360556</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>0.1263724552780687</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>0.1263724552780687</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
         <v>43678</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>51.63999938964844</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>51.84000015258789</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>51.29999923706055</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>51.56999969482422</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>48.40011215209961</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>39800</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>-0.05149897539207993</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>0.04952583209607779</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>0.05137615692070474</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>0.05137615692070474</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
         <v>43709</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>51.93999862670898</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>52.06000137329102</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>51.86000061035156</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>51.86999893188477</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>48.68167495727539</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>7700</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>0.005817320900443068</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>0.04929403281605062</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>0.06728396214878285</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>0.06728396214878285</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
         <v>43739</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>52.38000106811523</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>52.68000030517578</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>52.34999847412109</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>52.47999954223633</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>49.25418090820312</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>21400</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.01176018166402137</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>0.049067265311597</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>0.157987641121494</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>0.157987641121494</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
         <v>43770</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>55.93000030517578</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>55.9900016784668</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>55.75</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>55.88000106811523</v>
       </c>
-      <c r="F112" t="n">
-        <v>52.44519424438477</v>
-      </c>
-      <c r="G112" t="n">
+      <c r="F112">
+        <v>52.44518661499023</v>
+      </c>
+      <c r="G112">
         <v>30100</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>0.06478661500639982</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.04914927417798947</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>0.1571753988132019</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>0.1571753988132019</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
         <v>43800</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>59.09000015258789</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>59.09000015258789</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>57.52000045776367</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>57.75</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>55.35190200805664</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>11000</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>0.03346454717503167</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>0.04898630389987009</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>0.2548891661355353</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>0.2548891661355353</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
         <v>43831</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>56.45000076293945</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>56.56000137329102</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>56.11000061035156</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>56.15999984741211</v>
       </c>
-      <c r="F114" t="n">
-        <v>53.82792282104492</v>
-      </c>
-      <c r="G114" t="n">
+      <c r="F114">
+        <v>53.82792663574219</v>
+      </c>
+      <c r="G114">
         <v>44100</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>-0.02753247017468208</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>0.04888033161502734</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>0.1555555886965021</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>0.1555555886965021</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
         <v>43862</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>52.68000030517578</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>52.86999893188477</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>52.0099983215332</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>52.86999893188477</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>50.67454528808594</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>117900</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>-0.05858263754391635</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>0.04905880749548321</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>0.06937703075345136</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>0.06937703075345136</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
         <v>43891</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>45.2599983215332</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>45.2599983215332</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>44.27999877929688</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>44.56999969482422</v>
       </c>
-      <c r="F116" t="n">
-        <v>42.71920776367188</v>
-      </c>
-      <c r="G116" t="n">
+      <c r="F116">
+        <v>42.71921157836914</v>
+      </c>
+      <c r="G116">
         <v>28100</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>-0.1569888292934123</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>0.05120087170294943</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>-0.1476381924944793</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>-0.1476381924944793</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
         <v>43922</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>50.38999938964844</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>50.38999938964844</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>48.38999938964844</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>48.65999984741211</v>
       </c>
-      <c r="F117" t="n">
-        <v>46.63936996459961</v>
-      </c>
-      <c r="G117" t="n">
+      <c r="F117">
+        <v>46.63936614990234</v>
+      </c>
+      <c r="G117">
         <v>17900</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>0.0917657657750186</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.05160491972328933</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>-0.07013189098465988</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>-0.07013189098465988</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
         <v>43952</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>50.97000122070312</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>51.36999893188477</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>50.59999847412109</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>51.36999893188477</v>
       </c>
-      <c r="F118" t="n">
-        <v>49.2368278503418</v>
-      </c>
-      <c r="G118" t="n">
+      <c r="F118">
+        <v>49.23683166503906</v>
+      </c>
+      <c r="G118">
         <v>46900</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.05569254198460061</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>0.05158376499799955</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.005283766454521777</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.005283766454521777</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
         <v>43983</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>55.70000076293945</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>57.18999862670898</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>55.70000076293945</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>56.66999816894531</v>
       </c>
-      <c r="F119" t="n">
-        <v>54.69451141357422</v>
-      </c>
-      <c r="G119" t="n">
+      <c r="F119">
+        <v>54.69451522827148</v>
+      </c>
+      <c r="G119">
         <v>83900</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.1031730454985642</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.05212812579298003</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>0.06163351508052428</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>0.06163351508052428</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
         <v>44013</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>59.04999923706055</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>59.06000137329102</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>58.11999893188477</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>58.7400016784668</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>56.69235992431641</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>11500</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>0.0365273262114878</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.05197306941388664</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.08037525901107356</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>0.08037525901107356</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
         <v>44044</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>60.45999908447266</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>60.90999984741211</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>60.45999908447266</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>60.61000061035156</v>
       </c>
-      <c r="F121" t="n">
-        <v>58.49716949462891</v>
-      </c>
-      <c r="G121" t="n">
+      <c r="F121">
+        <v>58.49717330932617</v>
+      </c>
+      <c r="G121">
         <v>19700</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.03183518689905451</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.05179901865633143</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.1752957333531773</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>0.1752957333531773</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
         <v>44075</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>57.56000137329102</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>58.27999877929688</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>57.38999938964844</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>57.54000091552734</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>55.5341911315918</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>11300</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>-0.05065170209386027</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>0.05185864376955304</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>0.1093117813842328</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>0.1093117813842328</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
         <v>44105</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>59.79999923706055</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>59.84000015258789</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>58.90999984741211</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>59.36999893188477</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>57.30039596557617</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>33800</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>0.03180392748071004</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>0.0515007668512223</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>0.1312880992711005</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>0.1312880992711005</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:11">
+      <c r="A124" s="2">
         <v>44136</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>66.61000061035156</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>66.72000122070312</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>66.20999908447266</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>66.43000030517578</v>
       </c>
-      <c r="F124" t="n">
-        <v>64.11428833007812</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124">
+        <v>64.11429595947266</v>
+      </c>
+      <c r="G124">
         <v>26200</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.1189153023464082</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>0.05236235021515505</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>0.1887974057874582</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>0.1887974057874582</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:11">
+      <c r="A125" s="2">
         <v>44166</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>68.37000274658203</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>68.37000274658203</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>67.83999633789062</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>68.06999969482422</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>66.44497680664062</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>8200</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.02468763182469313</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>0.05233344415880843</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>0.1787012934168697</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>0.1787012934168697</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:11">
+      <c r="A126" s="2">
         <v>44197</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>68.15000152587891</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>68.51999664306641</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>67.43000030517578</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>67.69999694824219</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>66.08380889892578</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>23800</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>-0.005435621393284129</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>0.05234515664343398</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>0.2054842794192395</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>0.2054842794192395</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
         <v>44228</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>63.20000076293945</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>63.40999984741211</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>62.34999847412109</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>62.52999877929688</v>
       </c>
-      <c r="F127" t="n">
-        <v>61.0372314453125</v>
-      </c>
-      <c r="G127" t="n">
+      <c r="F127">
+        <v>61.03723526000977</v>
+      </c>
+      <c r="G127">
         <v>156500</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>-0.0763662984046789</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>0.05283569316292765</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>0.1827123140262894</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>0.1827123140262894</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:11">
+      <c r="A128" s="2">
         <v>44256</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>62.29000091552734</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>62.70000076293945</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>62.22000122070312</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>62.2599983215332</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>60.77367782592773</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>9100</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>-0.004317934799849432</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.0527778648417024</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>0.3969037188206055</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>0.3969037188206055</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:11">
+      <c r="A129" s="2">
         <v>44287</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>65.01999664306641</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>65.51000213623047</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>64.54000091552734</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>64.56999969482422</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>63.02853393554688</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>12400</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>0.03710249655583553</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>0.05235982919264182</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>0.326962595505603</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>0.326962595505603</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:11">
+      <c r="A130" s="2">
         <v>44317</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>61.40999984741211</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>61.75</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>61.09999847412109</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>61.63000106811523</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>60.15872192382812</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>23900</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>-0.0455319597429803</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>0.05251013088580041</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>0.1997275131314478</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>0.1997275131314478</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:11">
+      <c r="A131" s="2">
         <v>44348</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>60.61999893188477</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>60.95999908447266</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>60.25</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>60.72000122070312</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>59.80564880371094</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>14500</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>-0.01476553353303289</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>0.05244917574328374</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>0.07146644049085538</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>0.07146644049085538</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:11">
+      <c r="A132" s="2">
         <v>44378</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>60.90999984741211</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>60.91999816894531</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>60.40000152587891</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>60.43999862670898</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>59.52986145019531</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>8000</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>-0.004611373326169677</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>0.05234774865684107</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>0.02894104357619343</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>0.02894104357619343</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:11">
+      <c r="A133" s="2">
         <v>44409</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>63.33000183105469</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>63.47000122070312</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>63.02999877929688</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>63.45000076293945</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>62.49453735351562</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>12400</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>0.0498014924656256</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>0.05230828396721986</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>0.04685695634365072</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>0.04685695634365072</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:11">
+      <c r="A134" s="2">
         <v>44440</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>61.95000076293945</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>62.33000183105469</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>61.29000091552734</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>61.75</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>60.82013702392578</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>16100</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>-0.02679276189910473</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>0.05128245002631734</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>0.07316647579921365</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134">
         <v>0.07316647579921365</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:11">
+      <c r="A135" s="2">
         <v>44470</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>63.75</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>63.95000076293945</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>63.66999816894531</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>63.84000015258789</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>62.87866592407227</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>10800</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>0.03384615631721277</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>0.05125455070656441</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>0.0752905726987052</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>0.0752905726987052</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:11">
+      <c r="A136" s="2">
         <v>44501</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>58.81000137329102</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>59.11999893188477</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>58.20000076293945</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>58.65000152587891</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>57.76681900024414</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>23700</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>-0.0812969707754394</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>0.05179792924975758</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>-0.1171157420375731</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>-0.1171157420375731</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:11">
+      <c r="A137" s="2">
         <v>44531</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>58.84999847412109</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>59.06000137329102</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>58.81999969482422</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>58.88000106811523</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>58.88000106811523</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>5700</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>0.003921560720417716</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>0.05143242784857418</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>-0.1350080603483205</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>-0.1350080603483205</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
         <v>44562</v>
       </c>
-      <c r="B138" t="n">
-        <v>59.20999908447266</v>
-      </c>
-      <c r="C138" t="n">
-        <v>59.56999969482422</v>
-      </c>
-      <c r="D138" t="n">
-        <v>59.20999908447266</v>
-      </c>
-      <c r="E138" t="n">
-        <v>59.37269973754883</v>
-      </c>
-      <c r="F138" t="n">
-        <v>59.37269973754883</v>
-      </c>
-      <c r="G138" t="n">
-        <v>4176</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.00836784409809388</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.0510920176634078</v>
-      </c>
-      <c r="J138" t="n">
-        <v>-0.1230029185534487</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-0.1230029185534487</v>
+      <c r="B138">
+        <v>57.25</v>
+      </c>
+      <c r="C138">
+        <v>57.29999923706055</v>
+      </c>
+      <c r="D138">
+        <v>57.04909896850586</v>
+      </c>
+      <c r="E138">
+        <v>57.04909896850586</v>
+      </c>
+      <c r="F138">
+        <v>57.04909896850586</v>
+      </c>
+      <c r="G138">
+        <v>1588</v>
+      </c>
+      <c r="H138">
+        <v>-0.03109548346460289</v>
+      </c>
+      <c r="I138">
+        <v>0.05121082817946657</v>
+      </c>
+      <c r="J138">
+        <v>-0.1573249403228056</v>
+      </c>
+      <c r="K138">
+        <v>-0.1573249403228056</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>